--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_16_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1134806.447752597</v>
+        <v>1084265.384309263</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10501841.58691538</v>
+        <v>10501841.58691539</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6622564.891192491</v>
+        <v>6622564.891192489</v>
       </c>
     </row>
     <row r="11">
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>279.2446768570474</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
-        <v>245.9587113756874</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>33.60766787098638</v>
+      </c>
+      <c r="T11" t="n">
+        <v>212.351043504701</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>279.2446768570474</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>279.2446768570474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116.9909696617896</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>181.9877741987825</v>
+        <v>15.91310679696874</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>216.2313274167878</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1514,7 +1514,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.771475014084431</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2299949382657</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.671560002278</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>97.56536700939661</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>245.9587113756875</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.5276075211092</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X14" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.2446768570475</v>
+        <v>111.4311038545781</v>
       </c>
     </row>
     <row r="15">
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>98.79757414413211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>24.52144568510379</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>181.9877741987825</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2313274167878</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1754,7 +1754,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.57443668037331</v>
+        <v>76.4486415495109</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>103.037918093533</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.1356990621868</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.5720598565278</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.2446768570475</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>245.9587113756874</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>279.2446768570475</v>
+        <v>33.60766787098625</v>
       </c>
       <c r="H17" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.351043504701</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>39.71965779079297</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>181.9877741987825</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2313274167878</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>91.35575533191886</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>57.28973284305807</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2299949382657</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>112.671560002278</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>103.037918093533</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1356990621868</v>
+        <v>173.8950673723859</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>178.3247372069246</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>245.9587113756874</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>134.5276075211092</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.351043504701</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.100799631845</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>126.2477556514951</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.2313274167878</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>77.40571128971776</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>103.037918093533</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.1356990621868</v>
       </c>
       <c r="T22" t="n">
-        <v>38.13549737199526</v>
+        <v>98.65757244060644</v>
       </c>
       <c r="U22" t="n">
-        <v>279.2446768570475</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>279.2446768570475</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>300.2585593955556</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>409.71237825052</v>
       </c>
       <c r="H23" t="n">
-        <v>75.08781043857614</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.1580374487592</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>52.88275383930443</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>9.917862001262979</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>146.1358606582491</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.2299949382657</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>103.037918093533</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.1356990621868</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>226.5720598565278</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2637613226513</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>16.49845530662357</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>42.53041456165947</v>
       </c>
       <c r="G26" t="n">
         <v>409.71237825052</v>
@@ -2575,7 +2575,7 @@
         <v>306.6492527266272</v>
       </c>
       <c r="I26" t="n">
-        <v>85.09503741211985</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>134.5276075211092</v>
       </c>
       <c r="T26" t="n">
-        <v>186.9668529459871</v>
+        <v>212.351043504701</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>61.34694543106178</v>
       </c>
       <c r="G27" t="n">
         <v>126.2477556514951</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41217434084012</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.60786726031775</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T27" t="n">
-        <v>125.0713265532318</v>
+        <v>181.9877741987825</v>
       </c>
       <c r="U27" t="n">
         <v>216.2313274167878</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>144.3533068672332</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -2730,10 +2730,10 @@
         <v>166.2299949382657</v>
       </c>
       <c r="H28" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.671560002278</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2637613226513</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>216.4738210032984</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>281.0805863135789</v>
+        <v>124.424962554363</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
@@ -2809,10 +2809,10 @@
         <v>409.71237825052</v>
       </c>
       <c r="H29" t="n">
-        <v>306.6492527266272</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.09503741211985</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>87.41217434084012</v>
       </c>
       <c r="I30" t="n">
-        <v>26.60786726031775</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T30" t="n">
-        <v>125.0713265532318</v>
+        <v>181.9877741987825</v>
       </c>
       <c r="U30" t="n">
         <v>216.2313274167878</v>
@@ -2936,7 +2936,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>36.52572926158067</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.03829283488773</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2299949382657</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.671560002278</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>103.037918093533</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.8070646224688</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2637613226513</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -3031,19 +3031,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.71237825052</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>229.5219926197762</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>306.7608973391128</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>54.24784101293253</v>
       </c>
       <c r="H33" t="n">
-        <v>27.63997375261654</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.60786726031775</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -3204,7 +3204,7 @@
         <v>166.2299949382657</v>
       </c>
       <c r="H34" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.1356990621868</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2637613226513</v>
+        <v>86.45019426837668</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.245969143867348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>279.2446768570476</v>
+        <v>160.8636739635675</v>
       </c>
       <c r="F35" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="G35" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="H35" t="n">
-        <v>245.9587113756874</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.09503741211985</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>126.2477556514951</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41217434084012</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.60786726031775</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>181.9877741987825</v>
       </c>
       <c r="U36" t="n">
-        <v>111.6492645077238</v>
+        <v>216.2313274167878</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>85.74731668283214</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>117.2176570324903</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2299949382657</v>
+        <v>104.4956293140201</v>
       </c>
       <c r="H37" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.671560002278</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.1356990621868</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.5720598565278</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>273.0453507839759</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>273.0453507839754</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>252.1580374487592</v>
       </c>
       <c r="V38" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="X38" t="n">
-        <v>279.2446768570476</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.9601996252123</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>126.2477556514951</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41217434084012</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.60786726031775</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>60.95149004018806</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>216.2313274167878</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3647,7 +3647,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.2299949382657</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>103.037918093533</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>262.4750463048885</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>212.5558176670071</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="G41" t="n">
-        <v>279.2446768570476</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>252.1580374487592</v>
       </c>
       <c r="V41" t="n">
-        <v>279.2446768570476</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>273.0453507839759</v>
+        <v>273.0453507839754</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>51.76428900649696</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>29.86315083917043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>181.9877741987825</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>216.2313274167878</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.2299949382657</v>
@@ -3918,7 +3918,7 @@
         <v>148.8830644867333</v>
       </c>
       <c r="I43" t="n">
-        <v>48.16940203723231</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.1356990621868</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.5720598565278</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>118.9319841395375</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>279.2446768570476</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>279.2446768570476</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>178.3247372069244</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>134.5276075211092</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.351043504701</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>245.9587113756874</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41217434084012</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T45" t="n">
-        <v>54.02567668450469</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2313274167878</v>
+        <v>100.1394693404372</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2299949382657</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>116.1195884110928</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>279.2446768570476</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.78778739508763</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>552.8480471109222</v>
+        <v>304.4049043071975</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8480471109222</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="D11" t="n">
-        <v>304.4049043071975</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="E11" t="n">
         <v>22.33957414856379</v>
@@ -5041,52 +5041,52 @@
         <v>22.33957414856379</v>
       </c>
       <c r="J11" t="n">
-        <v>64.13431489381057</v>
+        <v>64.13431489381048</v>
       </c>
       <c r="K11" t="n">
         <v>167.9988431769256</v>
       </c>
       <c r="L11" t="n">
-        <v>326.8346563515479</v>
+        <v>326.8346563515478</v>
       </c>
       <c r="M11" t="n">
-        <v>529.3015208163845</v>
+        <v>529.3015208163841</v>
       </c>
       <c r="N11" t="n">
-        <v>738.7932301286537</v>
+        <v>738.7932301286532</v>
       </c>
       <c r="O11" t="n">
-        <v>925.7754109831923</v>
+        <v>925.7754109831915</v>
       </c>
       <c r="P11" t="n">
         <v>1057.328313158995</v>
       </c>
       <c r="Q11" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R11" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S11" t="n">
-        <v>1116.97870742819</v>
+        <v>1083.031568164567</v>
       </c>
       <c r="T11" t="n">
-        <v>1116.97870742819</v>
+        <v>868.5355646244648</v>
       </c>
       <c r="U11" t="n">
-        <v>1116.97870742819</v>
+        <v>868.5355646244648</v>
       </c>
       <c r="V11" t="n">
-        <v>1116.97870742819</v>
+        <v>586.4702344658311</v>
       </c>
       <c r="W11" t="n">
-        <v>1116.97870742819</v>
+        <v>304.4049043071975</v>
       </c>
       <c r="X11" t="n">
-        <v>1116.97870742819</v>
+        <v>304.4049043071975</v>
       </c>
       <c r="Y11" t="n">
-        <v>834.9133772695559</v>
+        <v>304.4049043071975</v>
       </c>
     </row>
     <row r="12">
@@ -5120,52 +5120,52 @@
         <v>22.33957414856379</v>
       </c>
       <c r="J12" t="n">
-        <v>31.94273476123827</v>
+        <v>31.94273476123823</v>
       </c>
       <c r="K12" t="n">
-        <v>247.9439357711091</v>
+        <v>262.7075497339465</v>
       </c>
       <c r="L12" t="n">
-        <v>393.0354050773004</v>
+        <v>407.7990190401378</v>
       </c>
       <c r="M12" t="n">
-        <v>578.0777616251033</v>
+        <v>592.8413755879405</v>
       </c>
       <c r="N12" t="n">
-        <v>779.7246627340548</v>
+        <v>794.4882766968921</v>
       </c>
       <c r="O12" t="n">
-        <v>946.1385987300057</v>
+        <v>960.9022126928428</v>
       </c>
       <c r="P12" t="n">
-        <v>1063.99233735585</v>
+        <v>1078.755951318687</v>
       </c>
       <c r="Q12" t="n">
-        <v>1102.215093465353</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R12" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S12" t="n">
-        <v>986.571122989636</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T12" t="n">
-        <v>802.7450884454113</v>
+        <v>1100.904862178726</v>
       </c>
       <c r="U12" t="n">
-        <v>802.7450884454113</v>
+        <v>882.4893799395464</v>
       </c>
       <c r="V12" t="n">
-        <v>574.3494658937452</v>
+        <v>654.0937573878804</v>
       </c>
       <c r="W12" t="n">
-        <v>333.0335971270553</v>
+        <v>412.7778886211904</v>
       </c>
       <c r="X12" t="n">
-        <v>333.0335971270553</v>
+        <v>214.860900498985</v>
       </c>
       <c r="Y12" t="n">
-        <v>140.5122707766341</v>
+        <v>22.33957414856379</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>933.4233387438098</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="C13" t="n">
-        <v>763.8073692054901</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="D13" t="n">
-        <v>610.7354760332528</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="E13" t="n">
-        <v>606.9259053119554</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="F13" t="n">
-        <v>454.4452503377324</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G13" t="n">
-        <v>286.5361645415045</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H13" t="n">
-        <v>136.1492307165214</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I13" t="n">
         <v>22.33957414856379</v>
@@ -5202,49 +5202,49 @@
         <v>22.33957414856379</v>
       </c>
       <c r="K13" t="n">
-        <v>78.34222168012903</v>
+        <v>33.64850960151215</v>
       </c>
       <c r="L13" t="n">
-        <v>326.2171670467262</v>
+        <v>152.4637200615553</v>
       </c>
       <c r="M13" t="n">
-        <v>599.4839893573755</v>
+        <v>425.7305423722046</v>
       </c>
       <c r="N13" t="n">
-        <v>869.4875948841169</v>
+        <v>695.7341478989459</v>
       </c>
       <c r="O13" t="n">
-        <v>1107.961072616484</v>
+        <v>934.2076256313128</v>
       </c>
       <c r="P13" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R13" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S13" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T13" t="n">
-        <v>1116.97870742819</v>
+        <v>1018.427831661122</v>
       </c>
       <c r="U13" t="n">
-        <v>1116.97870742819</v>
+        <v>1018.427831661122</v>
       </c>
       <c r="V13" t="n">
-        <v>1116.97870742819</v>
+        <v>757.6925272195447</v>
       </c>
       <c r="W13" t="n">
-        <v>1116.97870742819</v>
+        <v>475.6271970609109</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.97870742819</v>
+        <v>244.3747329562867</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.97870742819</v>
+        <v>22.33957414856379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>270.7827169522885</v>
+        <v>586.4702344658311</v>
       </c>
       <c r="C14" t="n">
-        <v>22.3395741485638</v>
+        <v>586.4702344658311</v>
       </c>
       <c r="D14" t="n">
-        <v>22.3395741485638</v>
+        <v>586.4702344658311</v>
       </c>
       <c r="E14" t="n">
-        <v>22.3395741485638</v>
+        <v>586.4702344658311</v>
       </c>
       <c r="F14" t="n">
-        <v>22.3395741485638</v>
+        <v>586.4702344658311</v>
       </c>
       <c r="G14" t="n">
-        <v>22.3395741485638</v>
+        <v>304.4049043071975</v>
       </c>
       <c r="H14" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I14" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J14" t="n">
-        <v>64.13431489381082</v>
+        <v>64.13431489381048</v>
       </c>
       <c r="K14" t="n">
-        <v>167.9988431769264</v>
+        <v>167.9988431769256</v>
       </c>
       <c r="L14" t="n">
-        <v>326.8346563515486</v>
+        <v>326.8346563515478</v>
       </c>
       <c r="M14" t="n">
-        <v>529.3015208163851</v>
+        <v>529.3015208163841</v>
       </c>
       <c r="N14" t="n">
-        <v>738.793230128654</v>
+        <v>738.7932301286534</v>
       </c>
       <c r="O14" t="n">
-        <v>925.7754109831923</v>
+        <v>925.7754109831916</v>
       </c>
       <c r="P14" t="n">
         <v>1057.328313158995</v>
       </c>
       <c r="Q14" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R14" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S14" t="n">
-        <v>1116.97870742819</v>
+        <v>981.0922351846448</v>
       </c>
       <c r="T14" t="n">
-        <v>1116.97870742819</v>
+        <v>981.0922351846448</v>
       </c>
       <c r="U14" t="n">
-        <v>1116.97870742819</v>
+        <v>981.0922351846448</v>
       </c>
       <c r="V14" t="n">
-        <v>1116.97870742819</v>
+        <v>981.0922351846448</v>
       </c>
       <c r="W14" t="n">
-        <v>1116.97870742819</v>
+        <v>699.026905026011</v>
       </c>
       <c r="X14" t="n">
-        <v>834.9133772695562</v>
+        <v>699.026905026011</v>
       </c>
       <c r="Y14" t="n">
-        <v>552.8480471109224</v>
+        <v>586.4702344658311</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.3395741485638</v>
+        <v>256.8289016372067</v>
       </c>
       <c r="C15" t="n">
-        <v>22.3395741485638</v>
+        <v>256.8289016372067</v>
       </c>
       <c r="D15" t="n">
-        <v>22.3395741485638</v>
+        <v>256.8289016372067</v>
       </c>
       <c r="E15" t="n">
-        <v>22.3395741485638</v>
+        <v>157.0333721986894</v>
       </c>
       <c r="F15" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G15" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H15" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I15" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J15" t="n">
-        <v>168.02980962613</v>
+        <v>182.7934235889667</v>
       </c>
       <c r="K15" t="n">
-        <v>247.9439357711099</v>
+        <v>262.7075497339465</v>
       </c>
       <c r="L15" t="n">
-        <v>393.0354050773011</v>
+        <v>407.7990190401378</v>
       </c>
       <c r="M15" t="n">
-        <v>578.0777616251039</v>
+        <v>592.8413755879405</v>
       </c>
       <c r="N15" t="n">
-        <v>779.7246627340554</v>
+        <v>794.4882766968921</v>
       </c>
       <c r="O15" t="n">
-        <v>946.1385987300062</v>
+        <v>960.9022126928428</v>
       </c>
       <c r="P15" t="n">
-        <v>1063.99233735585</v>
+        <v>1078.755951318687</v>
       </c>
       <c r="Q15" t="n">
-        <v>1102.215093465353</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R15" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S15" t="n">
-        <v>1092.20957037253</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T15" t="n">
-        <v>908.383535828305</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U15" t="n">
-        <v>689.9680535891252</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="V15" t="n">
-        <v>461.5724310374592</v>
+        <v>888.5830848765233</v>
       </c>
       <c r="W15" t="n">
-        <v>220.2565622707692</v>
+        <v>647.2672161098334</v>
       </c>
       <c r="X15" t="n">
-        <v>22.3395741485638</v>
+        <v>449.3502279876279</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.3395741485638</v>
+        <v>256.8289016372067</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="C16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="D16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="E16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="F16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="G16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="H16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
       <c r="I16" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J16" t="n">
-        <v>33.50940524653726</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="K16" t="n">
-        <v>44.81834069948561</v>
+        <v>33.64850960151215</v>
       </c>
       <c r="L16" t="n">
-        <v>292.6932860660827</v>
+        <v>281.5234549681093</v>
       </c>
       <c r="M16" t="n">
-        <v>565.960108376732</v>
+        <v>554.7902772787586</v>
       </c>
       <c r="N16" t="n">
-        <v>835.9637139034734</v>
+        <v>824.7938828054999</v>
       </c>
       <c r="O16" t="n">
-        <v>1074.43719163584</v>
+        <v>1063.267360537867</v>
       </c>
       <c r="P16" t="n">
-        <v>1083.454826447546</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R16" t="n">
-        <v>1012.900002283207</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S16" t="n">
-        <v>816.8033365638267</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T16" t="n">
-        <v>587.9426700420814</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U16" t="n">
-        <v>305.8773398834476</v>
+        <v>834.9133772695557</v>
       </c>
       <c r="V16" t="n">
-        <v>45.14203544187018</v>
+        <v>834.9133772695557</v>
       </c>
       <c r="W16" t="n">
-        <v>45.14203544187018</v>
+        <v>552.8480471109219</v>
       </c>
       <c r="X16" t="n">
-        <v>45.14203544187018</v>
+        <v>321.5955830062977</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.14203544187018</v>
+        <v>99.56042419857479</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1116.97870742819</v>
+        <v>338.3520435708199</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.97870742819</v>
+        <v>338.3520435708199</v>
       </c>
       <c r="D17" t="n">
-        <v>868.5355646244652</v>
+        <v>56.28671341218626</v>
       </c>
       <c r="E17" t="n">
-        <v>868.5355646244652</v>
+        <v>56.28671341218626</v>
       </c>
       <c r="F17" t="n">
-        <v>586.4702344658315</v>
+        <v>56.28671341218626</v>
       </c>
       <c r="G17" t="n">
-        <v>304.4049043071976</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H17" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I17" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J17" t="n">
         <v>64.13431489381048</v>
@@ -5536,31 +5536,31 @@
         <v>1057.328313158995</v>
       </c>
       <c r="Q17" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R17" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S17" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T17" t="n">
-        <v>1116.97870742819</v>
+        <v>902.4827038880874</v>
       </c>
       <c r="U17" t="n">
-        <v>1116.97870742819</v>
+        <v>902.4827038880874</v>
       </c>
       <c r="V17" t="n">
-        <v>1116.97870742819</v>
+        <v>902.4827038880874</v>
       </c>
       <c r="W17" t="n">
-        <v>1116.97870742819</v>
+        <v>620.4173737294536</v>
       </c>
       <c r="X17" t="n">
-        <v>1116.97870742819</v>
+        <v>338.3520435708199</v>
       </c>
       <c r="Y17" t="n">
-        <v>1116.97870742819</v>
+        <v>338.3520435708199</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.3395741485638</v>
+        <v>209.488450547039</v>
       </c>
       <c r="C18" t="n">
-        <v>22.3395741485638</v>
+        <v>209.488450547039</v>
       </c>
       <c r="D18" t="n">
-        <v>22.3395741485638</v>
+        <v>169.3675840916926</v>
       </c>
       <c r="E18" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="F18" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G18" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H18" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I18" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J18" t="n">
-        <v>31.94273476123824</v>
+        <v>31.94273476123823</v>
       </c>
       <c r="K18" t="n">
-        <v>111.8568609062181</v>
+        <v>262.7075497339465</v>
       </c>
       <c r="L18" t="n">
-        <v>256.9483302124093</v>
+        <v>407.7990190401378</v>
       </c>
       <c r="M18" t="n">
-        <v>441.990686760212</v>
+        <v>592.8413755879405</v>
       </c>
       <c r="N18" t="n">
-        <v>643.6375878691636</v>
+        <v>794.4882766968921</v>
       </c>
       <c r="O18" t="n">
-        <v>810.0515238651143</v>
+        <v>960.9022126928428</v>
       </c>
       <c r="P18" t="n">
-        <v>927.9052624909585</v>
+        <v>1078.755951318687</v>
       </c>
       <c r="Q18" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R18" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S18" t="n">
-        <v>986.5711229896363</v>
+        <v>986.5711229896358</v>
       </c>
       <c r="T18" t="n">
-        <v>802.7450884454115</v>
+        <v>802.7450884454111</v>
       </c>
       <c r="U18" t="n">
-        <v>584.3296062062318</v>
+        <v>802.7450884454111</v>
       </c>
       <c r="V18" t="n">
-        <v>355.9339836545657</v>
+        <v>802.7450884454111</v>
       </c>
       <c r="W18" t="n">
-        <v>114.6181148878758</v>
+        <v>561.4292196787211</v>
       </c>
       <c r="X18" t="n">
-        <v>22.3395741485638</v>
+        <v>561.4292196787211</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.3395741485638</v>
+        <v>368.9078933282999</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>816.8033365638265</v>
+        <v>497.036451097802</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8033365638265</v>
+        <v>327.4204815594823</v>
       </c>
       <c r="D19" t="n">
-        <v>758.9349195506366</v>
+        <v>174.348588387245</v>
       </c>
       <c r="E19" t="n">
-        <v>606.9259053119554</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="F19" t="n">
-        <v>454.4452503377324</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G19" t="n">
-        <v>286.5361645415045</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H19" t="n">
-        <v>136.1492307165214</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I19" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J19" t="n">
-        <v>33.50940524653726</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="K19" t="n">
-        <v>182.1975679850534</v>
+        <v>33.64850960151215</v>
       </c>
       <c r="L19" t="n">
-        <v>430.0725133516506</v>
+        <v>281.5234549681093</v>
       </c>
       <c r="M19" t="n">
-        <v>554.3093285601469</v>
+        <v>554.7902772787586</v>
       </c>
       <c r="N19" t="n">
-        <v>824.3129340868883</v>
+        <v>824.7938828054999</v>
       </c>
       <c r="O19" t="n">
-        <v>1062.786411819255</v>
+        <v>1063.267360537867</v>
       </c>
       <c r="P19" t="n">
-        <v>1071.804046630961</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R19" t="n">
-        <v>1012.900002283207</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S19" t="n">
-        <v>816.8033365638265</v>
+        <v>941.3271242237593</v>
       </c>
       <c r="T19" t="n">
-        <v>816.8033365638265</v>
+        <v>941.3271242237593</v>
       </c>
       <c r="U19" t="n">
-        <v>816.8033365638265</v>
+        <v>941.3271242237593</v>
       </c>
       <c r="V19" t="n">
-        <v>816.8033365638265</v>
+        <v>680.5918197821818</v>
       </c>
       <c r="W19" t="n">
-        <v>816.8033365638265</v>
+        <v>680.5918197821818</v>
       </c>
       <c r="X19" t="n">
-        <v>816.8033365638265</v>
+        <v>680.5918197821818</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.8033365638265</v>
+        <v>680.5918197821818</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>834.9133772695562</v>
+        <v>484.5309014859092</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8480471109224</v>
+        <v>484.5309014859092</v>
       </c>
       <c r="D20" t="n">
-        <v>552.8480471109224</v>
+        <v>304.4049043071975</v>
       </c>
       <c r="E20" t="n">
-        <v>552.8480471109224</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="F20" t="n">
-        <v>552.8480471109224</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G20" t="n">
-        <v>304.4049043071977</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H20" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I20" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J20" t="n">
-        <v>64.13431489381082</v>
+        <v>64.1343148938108</v>
       </c>
       <c r="K20" t="n">
-        <v>167.9988431769264</v>
+        <v>167.9988431769258</v>
       </c>
       <c r="L20" t="n">
-        <v>326.8346563515487</v>
+        <v>326.8346563515479</v>
       </c>
       <c r="M20" t="n">
-        <v>529.3015208163849</v>
+        <v>529.3015208163844</v>
       </c>
       <c r="N20" t="n">
-        <v>738.793230128654</v>
+        <v>738.7932301286535</v>
       </c>
       <c r="O20" t="n">
-        <v>925.7754109831923</v>
+        <v>925.7754109831917</v>
       </c>
       <c r="P20" t="n">
         <v>1057.328313158995</v>
@@ -5779,25 +5779,25 @@
         <v>1116.97870742819</v>
       </c>
       <c r="S20" t="n">
-        <v>1116.97870742819</v>
+        <v>981.092235184645</v>
       </c>
       <c r="T20" t="n">
-        <v>1116.97870742819</v>
+        <v>766.596231644543</v>
       </c>
       <c r="U20" t="n">
-        <v>1116.97870742819</v>
+        <v>766.596231644543</v>
       </c>
       <c r="V20" t="n">
-        <v>834.9133772695562</v>
+        <v>766.596231644543</v>
       </c>
       <c r="W20" t="n">
-        <v>834.9133772695562</v>
+        <v>484.5309014859092</v>
       </c>
       <c r="X20" t="n">
-        <v>834.9133772695562</v>
+        <v>484.5309014859092</v>
       </c>
       <c r="Y20" t="n">
-        <v>834.9133772695562</v>
+        <v>484.5309014859092</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>732.1266774172122</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="C21" t="n">
-        <v>570.423004658167</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="D21" t="n">
-        <v>431.584367648379</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="E21" t="n">
-        <v>284.5563577052502</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="F21" t="n">
-        <v>149.8625596551246</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G21" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H21" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I21" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J21" t="n">
-        <v>31.94273476123825</v>
+        <v>168.0298096261296</v>
       </c>
       <c r="K21" t="n">
-        <v>111.8568609062181</v>
+        <v>247.9439357711094</v>
       </c>
       <c r="L21" t="n">
-        <v>256.9483302124094</v>
+        <v>393.0354050773007</v>
       </c>
       <c r="M21" t="n">
-        <v>441.9906867602122</v>
+        <v>578.0777616251034</v>
       </c>
       <c r="N21" t="n">
-        <v>643.6375878691636</v>
+        <v>779.724662734055</v>
       </c>
       <c r="O21" t="n">
-        <v>810.0515238651143</v>
+        <v>946.1385987300057</v>
       </c>
       <c r="P21" t="n">
-        <v>927.9052624909585</v>
+        <v>1063.99233735585</v>
       </c>
       <c r="Q21" t="n">
         <v>1102.215093465353</v>
@@ -5858,25 +5858,25 @@
         <v>1116.97870742819</v>
       </c>
       <c r="S21" t="n">
-        <v>1116.97870742819</v>
+        <v>986.571122989636</v>
       </c>
       <c r="T21" t="n">
-        <v>1116.97870742819</v>
+        <v>986.571122989636</v>
       </c>
       <c r="U21" t="n">
-        <v>1116.97870742819</v>
+        <v>768.1556407504563</v>
       </c>
       <c r="V21" t="n">
-        <v>1116.97870742819</v>
+        <v>539.7600181987902</v>
       </c>
       <c r="W21" t="n">
-        <v>875.6628386615001</v>
+        <v>298.4441494321003</v>
       </c>
       <c r="X21" t="n">
-        <v>875.6628386615001</v>
+        <v>100.5271613098949</v>
       </c>
       <c r="Y21" t="n">
-        <v>875.6628386615001</v>
+        <v>22.33957414856379</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.3395741485638</v>
+        <v>174.348588387245</v>
       </c>
       <c r="C22" t="n">
-        <v>22.3395741485638</v>
+        <v>174.348588387245</v>
       </c>
       <c r="D22" t="n">
-        <v>22.3395741485638</v>
+        <v>174.348588387245</v>
       </c>
       <c r="E22" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="F22" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="G22" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H22" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I22" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J22" t="n">
-        <v>22.3395741485638</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="K22" t="n">
-        <v>171.02773688708</v>
+        <v>78.34222168012906</v>
       </c>
       <c r="L22" t="n">
-        <v>209.7977413696966</v>
+        <v>326.2171670467262</v>
       </c>
       <c r="M22" t="n">
-        <v>483.0645636803459</v>
+        <v>599.4839893573755</v>
       </c>
       <c r="N22" t="n">
-        <v>650.5594871017178</v>
+        <v>869.4875948841169</v>
       </c>
       <c r="O22" t="n">
-        <v>889.0329648340846</v>
+        <v>1107.961072616484</v>
       </c>
       <c r="P22" t="n">
-        <v>1071.804046630961</v>
+        <v>1116.97870742819</v>
       </c>
       <c r="Q22" t="n">
         <v>1116.97870742819</v>
       </c>
       <c r="R22" t="n">
-        <v>1116.97870742819</v>
+        <v>1012.900002283207</v>
       </c>
       <c r="S22" t="n">
-        <v>1116.97870742819</v>
+        <v>816.8033365638263</v>
       </c>
       <c r="T22" t="n">
-        <v>1078.458003012033</v>
+        <v>717.1492229874561</v>
       </c>
       <c r="U22" t="n">
-        <v>796.3926728533993</v>
+        <v>435.0838928288224</v>
       </c>
       <c r="V22" t="n">
-        <v>535.6573684118218</v>
+        <v>174.348588387245</v>
       </c>
       <c r="W22" t="n">
-        <v>253.592038253188</v>
+        <v>174.348588387245</v>
       </c>
       <c r="X22" t="n">
-        <v>22.3395741485638</v>
+        <v>174.348588387245</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.3395741485638</v>
+        <v>174.348588387245</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2098.070942612836</v>
+        <v>458.530035418865</v>
       </c>
       <c r="C23" t="n">
-        <v>1716.137183945643</v>
+        <v>458.530035418865</v>
       </c>
       <c r="D23" t="n">
-        <v>1343.313219172867</v>
+        <v>458.530035418865</v>
       </c>
       <c r="E23" t="n">
-        <v>948.5274992789737</v>
+        <v>458.530035418865</v>
       </c>
       <c r="F23" t="n">
-        <v>534.3763085891439</v>
+        <v>458.530035418865</v>
       </c>
       <c r="G23" t="n">
-        <v>120.5254214674065</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H23" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I23" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J23" t="n">
-        <v>86.47388904237457</v>
+        <v>86.47388904237454</v>
       </c>
       <c r="K23" t="n">
-        <v>607.5135633045786</v>
+        <v>190.3384173254895</v>
       </c>
       <c r="L23" t="n">
-        <v>766.3493764792008</v>
+        <v>349.1742305001118</v>
       </c>
       <c r="M23" t="n">
-        <v>1319.253836656155</v>
+        <v>551.6410949649483</v>
       </c>
       <c r="N23" t="n">
-        <v>1855.771937556845</v>
+        <v>1075.694720817729</v>
       </c>
       <c r="O23" t="n">
-        <v>2042.754118411383</v>
+        <v>1628.599180994683</v>
       </c>
       <c r="P23" t="n">
-        <v>2174.307020587186</v>
+        <v>2174.307020587184</v>
       </c>
       <c r="Q23" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="R23" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S23" t="n">
-        <v>2098.070942612836</v>
+        <v>2098.070942612834</v>
       </c>
       <c r="T23" t="n">
-        <v>2098.070942612836</v>
+        <v>2098.070942612834</v>
       </c>
       <c r="U23" t="n">
-        <v>2098.070942612836</v>
+        <v>1843.365854280754</v>
       </c>
       <c r="V23" t="n">
-        <v>2098.070942612836</v>
+        <v>1506.386580176695</v>
       </c>
       <c r="W23" t="n">
-        <v>2098.070942612836</v>
+        <v>1143.851650034296</v>
       </c>
       <c r="X23" t="n">
-        <v>2098.070942612836</v>
+        <v>761.8215095557898</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.070942612836</v>
+        <v>761.8215095557898</v>
       </c>
     </row>
     <row r="24">
@@ -6044,70 +6044,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>869.6380107588649</v>
+        <v>869.6380107588647</v>
       </c>
       <c r="C24" t="n">
-        <v>707.9343379998196</v>
+        <v>707.9343379998194</v>
       </c>
       <c r="D24" t="n">
-        <v>569.0957009900317</v>
+        <v>569.0957009900314</v>
       </c>
       <c r="E24" t="n">
-        <v>422.0676910469028</v>
+        <v>422.0676910469027</v>
       </c>
       <c r="F24" t="n">
-        <v>287.3738929967772</v>
+        <v>287.3738929967771</v>
       </c>
       <c r="G24" t="n">
-        <v>159.8509074902164</v>
+        <v>159.8509074902163</v>
       </c>
       <c r="H24" t="n">
-        <v>71.55578189340817</v>
+        <v>71.55578189340812</v>
       </c>
       <c r="I24" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J24" t="n">
-        <v>54.28230890980205</v>
+        <v>216.5614713929082</v>
       </c>
       <c r="K24" t="n">
-        <v>134.1964350547819</v>
+        <v>636.8423575730767</v>
       </c>
       <c r="L24" t="n">
-        <v>687.1008952317361</v>
+        <v>781.9338268792679</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.00535540869</v>
+        <v>966.9761834270707</v>
       </c>
       <c r="N24" t="n">
-        <v>1626.333900846208</v>
+        <v>1168.623084536022</v>
       </c>
       <c r="O24" t="n">
-        <v>1792.747836842159</v>
+        <v>1382.886253602558</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.601575468003</v>
+        <v>1910.601575468002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2219.193800893544</v>
+        <v>2219.193800893542</v>
       </c>
       <c r="R24" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S24" t="n">
-        <v>2103.549830417827</v>
+        <v>2103.549830417825</v>
       </c>
       <c r="T24" t="n">
-        <v>1919.723795873603</v>
+        <v>1919.723795873601</v>
       </c>
       <c r="U24" t="n">
-        <v>1701.308313634423</v>
+        <v>1701.308313634421</v>
       </c>
       <c r="V24" t="n">
-        <v>1472.912691082757</v>
+        <v>1472.912691082755</v>
       </c>
       <c r="W24" t="n">
-        <v>1419.495768012752</v>
+        <v>1231.596822316065</v>
       </c>
       <c r="X24" t="n">
         <v>1221.578779890547</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>629.2654794605191</v>
+        <v>799.4726871968533</v>
       </c>
       <c r="C25" t="n">
-        <v>629.2654794605191</v>
+        <v>629.8567176585335</v>
       </c>
       <c r="D25" t="n">
-        <v>629.2654794605191</v>
+        <v>476.7848244862962</v>
       </c>
       <c r="E25" t="n">
-        <v>629.2654794605191</v>
+        <v>476.7848244862962</v>
       </c>
       <c r="F25" t="n">
-        <v>476.7848244862963</v>
+        <v>476.7848244862962</v>
       </c>
       <c r="G25" t="n">
         <v>308.8757386900683</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4888048650852</v>
+        <v>158.4888048650851</v>
       </c>
       <c r="I25" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84897939510107</v>
+        <v>55.84897939510103</v>
       </c>
       <c r="K25" t="n">
         <v>204.5371421336172</v>
       </c>
       <c r="L25" t="n">
-        <v>452.4120875002144</v>
+        <v>452.4120875002143</v>
       </c>
       <c r="M25" t="n">
-        <v>725.6789098108637</v>
+        <v>725.6789098108636</v>
       </c>
       <c r="N25" t="n">
-        <v>995.6825153376051</v>
+        <v>995.682515337605</v>
       </c>
       <c r="O25" t="n">
         <v>1234.155993069972</v>
@@ -6171,28 +6171,28 @@
         <v>1462.101735664077</v>
       </c>
       <c r="R25" t="n">
-        <v>1358.023030519094</v>
+        <v>1462.101735664077</v>
       </c>
       <c r="S25" t="n">
-        <v>1161.926364799714</v>
+        <v>1462.101735664077</v>
       </c>
       <c r="T25" t="n">
-        <v>933.0656982779685</v>
+        <v>1233.241069142332</v>
       </c>
       <c r="U25" t="n">
-        <v>645.930585830846</v>
+        <v>1233.241069142332</v>
       </c>
       <c r="V25" t="n">
-        <v>629.2654794605191</v>
+        <v>1233.241069142332</v>
       </c>
       <c r="W25" t="n">
-        <v>629.2654794605191</v>
+        <v>947.0846676597312</v>
       </c>
       <c r="X25" t="n">
-        <v>629.2654794605191</v>
+        <v>947.0846676597312</v>
       </c>
       <c r="Y25" t="n">
-        <v>629.2654794605191</v>
+        <v>947.0846676597312</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.102007840232</v>
+        <v>1184.060734826274</v>
       </c>
       <c r="C26" t="n">
-        <v>1663.168249173039</v>
+        <v>1184.060734826274</v>
       </c>
       <c r="D26" t="n">
-        <v>1663.168249173039</v>
+        <v>811.236770053498</v>
       </c>
       <c r="E26" t="n">
-        <v>1268.382529279146</v>
+        <v>811.236770053498</v>
       </c>
       <c r="F26" t="n">
-        <v>854.2313385893166</v>
+        <v>768.2767553447511</v>
       </c>
       <c r="G26" t="n">
-        <v>440.3804514675792</v>
+        <v>354.4258682230137</v>
       </c>
       <c r="H26" t="n">
-        <v>130.6337315416931</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I26" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J26" t="n">
-        <v>86.47388904237457</v>
+        <v>86.47388904237454</v>
       </c>
       <c r="K26" t="n">
-        <v>190.3384173254896</v>
+        <v>607.5135633045786</v>
       </c>
       <c r="L26" t="n">
-        <v>700.082817116401</v>
+        <v>766.3493764792008</v>
       </c>
       <c r="M26" t="n">
-        <v>1252.987277293355</v>
+        <v>968.8162409440373</v>
       </c>
       <c r="N26" t="n">
-        <v>1805.891737470309</v>
+        <v>1178.307950256306</v>
       </c>
       <c r="O26" t="n">
-        <v>1992.873918324848</v>
+        <v>1365.290131110845</v>
       </c>
       <c r="P26" t="n">
-        <v>2124.426820500651</v>
+        <v>1901.057627607887</v>
       </c>
       <c r="Q26" t="n">
-        <v>2184.077214769845</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="R26" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S26" t="n">
-        <v>2233.957414856381</v>
+        <v>2098.070942612834</v>
       </c>
       <c r="T26" t="n">
-        <v>2045.102007840232</v>
+        <v>1883.574939072732</v>
       </c>
       <c r="U26" t="n">
-        <v>2045.102007840232</v>
+        <v>1883.574939072732</v>
       </c>
       <c r="V26" t="n">
-        <v>2045.102007840232</v>
+        <v>1546.595664968673</v>
       </c>
       <c r="W26" t="n">
-        <v>2045.102007840232</v>
+        <v>1184.060734826274</v>
       </c>
       <c r="X26" t="n">
-        <v>2045.102007840232</v>
+        <v>1184.060734826274</v>
       </c>
       <c r="Y26" t="n">
-        <v>2045.102007840232</v>
+        <v>1184.060734826274</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>869.6380107588649</v>
+        <v>681.7390650621774</v>
       </c>
       <c r="C27" t="n">
-        <v>707.9343379998196</v>
+        <v>520.0353923031321</v>
       </c>
       <c r="D27" t="n">
-        <v>569.0957009900317</v>
+        <v>381.1967552933442</v>
       </c>
       <c r="E27" t="n">
-        <v>422.0676910469028</v>
+        <v>234.1687453502154</v>
       </c>
       <c r="F27" t="n">
-        <v>287.3738929967772</v>
+        <v>172.2021338036883</v>
       </c>
       <c r="G27" t="n">
-        <v>159.8509074902164</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H27" t="n">
-        <v>71.55578189340817</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I27" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J27" t="n">
-        <v>54.28230890980205</v>
+        <v>216.5614713929082</v>
       </c>
       <c r="K27" t="n">
-        <v>134.1964350547819</v>
+        <v>636.8423575730767</v>
       </c>
       <c r="L27" t="n">
-        <v>279.2879043609731</v>
+        <v>781.9338268792679</v>
       </c>
       <c r="M27" t="n">
-        <v>628.3348923166543</v>
+        <v>966.9761834270707</v>
       </c>
       <c r="N27" t="n">
-        <v>829.9817934256057</v>
+        <v>1168.623084536022</v>
       </c>
       <c r="O27" t="n">
-        <v>1382.88625360256</v>
+        <v>1721.527544712976</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.601575468003</v>
+        <v>1910.601575468002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2219.193800893544</v>
+        <v>2219.193800893542</v>
       </c>
       <c r="R27" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S27" t="n">
-        <v>2233.957414856381</v>
+        <v>2103.549830417825</v>
       </c>
       <c r="T27" t="n">
-        <v>2107.622741570288</v>
+        <v>1919.723795873601</v>
       </c>
       <c r="U27" t="n">
-        <v>1889.207259331108</v>
+        <v>1701.308313634421</v>
       </c>
       <c r="V27" t="n">
-        <v>1660.811636779442</v>
+        <v>1472.912691082755</v>
       </c>
       <c r="W27" t="n">
-        <v>1419.495768012752</v>
+        <v>1231.596822316065</v>
       </c>
       <c r="X27" t="n">
-        <v>1221.578779890547</v>
+        <v>1033.67983419386</v>
       </c>
       <c r="Y27" t="n">
-        <v>1029.057453540126</v>
+        <v>841.1585078434383</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>944.6928700768523</v>
+        <v>670.1497964784969</v>
       </c>
       <c r="C28" t="n">
-        <v>775.0769005385325</v>
+        <v>670.1497964784969</v>
       </c>
       <c r="D28" t="n">
-        <v>775.0769005385325</v>
+        <v>517.0779033062596</v>
       </c>
       <c r="E28" t="n">
-        <v>629.2654794605191</v>
+        <v>365.0688890675784</v>
       </c>
       <c r="F28" t="n">
-        <v>476.7848244862963</v>
+        <v>212.5882340933555</v>
       </c>
       <c r="G28" t="n">
-        <v>308.8757386900683</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4888048650852</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I28" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84897939510107</v>
+        <v>55.84897939510103</v>
       </c>
       <c r="K28" t="n">
         <v>204.5371421336172</v>
       </c>
       <c r="L28" t="n">
-        <v>452.4120875002144</v>
+        <v>452.4120875002143</v>
       </c>
       <c r="M28" t="n">
-        <v>725.6789098108637</v>
+        <v>725.6789098108636</v>
       </c>
       <c r="N28" t="n">
-        <v>995.6825153376051</v>
+        <v>995.682515337605</v>
       </c>
       <c r="O28" t="n">
         <v>1234.155993069972</v>
@@ -6417,19 +6417,19 @@
         <v>1462.101735664077</v>
       </c>
       <c r="U28" t="n">
-        <v>1462.101735664077</v>
+        <v>1174.966623216955</v>
       </c>
       <c r="V28" t="n">
-        <v>1462.101735664077</v>
+        <v>956.3061979610977</v>
       </c>
       <c r="W28" t="n">
-        <v>1175.945334181476</v>
+        <v>670.1497964784969</v>
       </c>
       <c r="X28" t="n">
-        <v>944.6928700768523</v>
+        <v>670.1497964784969</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.6928700768523</v>
+        <v>670.1497964784969</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2233.957414856381</v>
+        <v>1851.927274377872</v>
       </c>
       <c r="C29" t="n">
-        <v>1950.03763070125</v>
+        <v>1726.24549401993</v>
       </c>
       <c r="D29" t="n">
-        <v>1577.213665928474</v>
+        <v>1353.421529247153</v>
       </c>
       <c r="E29" t="n">
-        <v>1182.427946034581</v>
+        <v>958.6358093532601</v>
       </c>
       <c r="F29" t="n">
-        <v>768.2767553447511</v>
+        <v>544.4846186634305</v>
       </c>
       <c r="G29" t="n">
-        <v>354.4258682230137</v>
+        <v>130.6337315416931</v>
       </c>
       <c r="H29" t="n">
-        <v>44.67914829712761</v>
+        <v>130.6337315416931</v>
       </c>
       <c r="I29" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J29" t="n">
-        <v>86.47388904237457</v>
+        <v>304.1012327688335</v>
       </c>
       <c r="K29" t="n">
-        <v>607.5135633045786</v>
+        <v>825.1409070310376</v>
       </c>
       <c r="L29" t="n">
-        <v>766.3493764792008</v>
+        <v>983.9767202056598</v>
       </c>
       <c r="M29" t="n">
-        <v>968.8162409440373</v>
+        <v>1186.443584670496</v>
       </c>
       <c r="N29" t="n">
-        <v>1178.307950256306</v>
+        <v>1395.935293982765</v>
       </c>
       <c r="O29" t="n">
-        <v>1731.212410433261</v>
+        <v>1628.599180994683</v>
       </c>
       <c r="P29" t="n">
-        <v>2174.307020587186</v>
+        <v>2174.307020587184</v>
       </c>
       <c r="Q29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="R29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="T29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="U29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="V29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="W29" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="X29" t="n">
-        <v>2233.957414856381</v>
+        <v>1851.927274377872</v>
       </c>
       <c r="Y29" t="n">
-        <v>2233.957414856381</v>
+        <v>1851.927274377872</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>869.6380107588649</v>
+        <v>842.7613771625842</v>
       </c>
       <c r="C30" t="n">
-        <v>707.9343379998196</v>
+        <v>681.0577044035389</v>
       </c>
       <c r="D30" t="n">
-        <v>569.0957009900317</v>
+        <v>542.2190673937509</v>
       </c>
       <c r="E30" t="n">
-        <v>422.0676910469028</v>
+        <v>395.1910574506222</v>
       </c>
       <c r="F30" t="n">
-        <v>287.3738929967772</v>
+        <v>260.4972594004965</v>
       </c>
       <c r="G30" t="n">
-        <v>159.8509074902164</v>
+        <v>132.9742738939358</v>
       </c>
       <c r="H30" t="n">
-        <v>71.55578189340817</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I30" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J30" t="n">
-        <v>54.28230890980205</v>
+        <v>216.5614713929082</v>
       </c>
       <c r="K30" t="n">
-        <v>375.4335111861086</v>
+        <v>636.8423575730767</v>
       </c>
       <c r="L30" t="n">
-        <v>520.5249804922998</v>
+        <v>781.9338268792679</v>
       </c>
       <c r="M30" t="n">
-        <v>1073.429440669254</v>
+        <v>966.9761834270707</v>
       </c>
       <c r="N30" t="n">
-        <v>1626.333900846208</v>
+        <v>1216.472317606607</v>
       </c>
       <c r="O30" t="n">
-        <v>1792.747836842159</v>
+        <v>1382.886253602558</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.601575468003</v>
+        <v>1910.601575468002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2219.193800893544</v>
+        <v>2219.193800893542</v>
       </c>
       <c r="R30" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S30" t="n">
-        <v>2233.957414856381</v>
+        <v>2103.549830417825</v>
       </c>
       <c r="T30" t="n">
-        <v>2107.622741570288</v>
+        <v>1919.723795873601</v>
       </c>
       <c r="U30" t="n">
-        <v>1889.207259331108</v>
+        <v>1701.308313634421</v>
       </c>
       <c r="V30" t="n">
-        <v>1660.811636779442</v>
+        <v>1472.912691082755</v>
       </c>
       <c r="W30" t="n">
-        <v>1419.495768012752</v>
+        <v>1231.596822316065</v>
       </c>
       <c r="X30" t="n">
-        <v>1221.578779890547</v>
+        <v>1194.702146294266</v>
       </c>
       <c r="Y30" t="n">
-        <v>1029.057453540126</v>
+        <v>1002.180819943845</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.252567269794</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="C31" t="n">
-        <v>875.252567269794</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="D31" t="n">
-        <v>781.2744936992003</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="E31" t="n">
-        <v>629.2654794605191</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="F31" t="n">
-        <v>476.7848244862963</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="G31" t="n">
-        <v>308.8757386900683</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4888048650852</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I31" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84897939510107</v>
+        <v>55.84897939510103</v>
       </c>
       <c r="K31" t="n">
         <v>204.5371421336172</v>
       </c>
       <c r="L31" t="n">
-        <v>452.4120875002144</v>
+        <v>452.4120875002143</v>
       </c>
       <c r="M31" t="n">
-        <v>725.6789098108637</v>
+        <v>725.6789098108636</v>
       </c>
       <c r="N31" t="n">
-        <v>995.6825153376051</v>
+        <v>995.682515337605</v>
       </c>
       <c r="O31" t="n">
         <v>1234.155993069972</v>
@@ -6645,28 +6645,28 @@
         <v>1462.101735664077</v>
       </c>
       <c r="R31" t="n">
-        <v>1358.023030519094</v>
+        <v>1462.101735664077</v>
       </c>
       <c r="S31" t="n">
-        <v>1358.023030519094</v>
+        <v>1462.101735664077</v>
       </c>
       <c r="T31" t="n">
-        <v>1358.023030519094</v>
+        <v>1331.993589580776</v>
       </c>
       <c r="U31" t="n">
-        <v>1358.023030519094</v>
+        <v>1044.858477133653</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.287726077517</v>
+        <v>784.1231726920755</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.287726077517</v>
+        <v>497.9667712094747</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.287726077517</v>
+        <v>266.7143071048505</v>
       </c>
       <c r="Y31" t="n">
-        <v>875.252567269794</v>
+        <v>44.67914829712758</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>417.503113069904</v>
+        <v>1608.073478752727</v>
       </c>
       <c r="C32" t="n">
-        <v>417.503113069904</v>
+        <v>1226.139720085534</v>
       </c>
       <c r="D32" t="n">
-        <v>44.67914829712761</v>
+        <v>853.3157553127581</v>
       </c>
       <c r="E32" t="n">
-        <v>44.67914829712761</v>
+        <v>458.530035418865</v>
       </c>
       <c r="F32" t="n">
-        <v>44.67914829712761</v>
+        <v>458.530035418865</v>
       </c>
       <c r="G32" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H32" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I32" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J32" t="n">
-        <v>86.47388904237457</v>
+        <v>86.47388904237454</v>
       </c>
       <c r="K32" t="n">
-        <v>190.3384173254896</v>
+        <v>607.5135633045786</v>
       </c>
       <c r="L32" t="n">
-        <v>743.2428775024438</v>
+        <v>766.3493764792008</v>
       </c>
       <c r="M32" t="n">
-        <v>945.7097419672803</v>
+        <v>968.8162409440373</v>
       </c>
       <c r="N32" t="n">
-        <v>1439.969458147893</v>
+        <v>1178.307950256306</v>
       </c>
       <c r="O32" t="n">
-        <v>1992.873918324848</v>
+        <v>1628.599180994683</v>
       </c>
       <c r="P32" t="n">
-        <v>2124.426820500651</v>
+        <v>2174.307020587184</v>
       </c>
       <c r="Q32" t="n">
-        <v>2184.077214769845</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="R32" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S32" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="T32" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="U32" t="n">
-        <v>2233.957414856381</v>
+        <v>2002.117018270746</v>
       </c>
       <c r="V32" t="n">
-        <v>1896.978140752322</v>
+        <v>2002.117018270746</v>
       </c>
       <c r="W32" t="n">
-        <v>1587.118648490592</v>
+        <v>2002.117018270746</v>
       </c>
       <c r="X32" t="n">
-        <v>1205.088508012085</v>
+        <v>2002.117018270746</v>
       </c>
       <c r="Y32" t="n">
-        <v>811.5466525879232</v>
+        <v>2002.117018270746</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>681.7390650621792</v>
+        <v>681.7390650621774</v>
       </c>
       <c r="C33" t="n">
-        <v>520.0353923031339</v>
+        <v>520.0353923031321</v>
       </c>
       <c r="D33" t="n">
-        <v>381.196755293346</v>
+        <v>381.1967552933442</v>
       </c>
       <c r="E33" t="n">
-        <v>234.1687453502172</v>
+        <v>234.1687453502154</v>
       </c>
       <c r="F33" t="n">
-        <v>99.47494730009154</v>
+        <v>99.47494730008972</v>
       </c>
       <c r="G33" t="n">
-        <v>99.47494730009154</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H33" t="n">
-        <v>71.55578189340817</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I33" t="n">
-        <v>44.67914829712761</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J33" t="n">
-        <v>54.28230890980205</v>
+        <v>126.9671829087687</v>
       </c>
       <c r="K33" t="n">
-        <v>474.5631950899706</v>
+        <v>547.2480690889372</v>
       </c>
       <c r="L33" t="n">
-        <v>1027.467655266925</v>
+        <v>1100.152529265891</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.510011814727</v>
+        <v>1285.194885813694</v>
       </c>
       <c r="N33" t="n">
-        <v>1510.212845981243</v>
+        <v>1486.841786922645</v>
       </c>
       <c r="O33" t="n">
-        <v>2063.117306158197</v>
+        <v>1653.255722918596</v>
       </c>
       <c r="P33" t="n">
-        <v>2180.971044784041</v>
+        <v>2180.971044784039</v>
       </c>
       <c r="Q33" t="n">
-        <v>2219.193800893544</v>
+        <v>2219.193800893542</v>
       </c>
       <c r="R33" t="n">
-        <v>2233.957414856381</v>
+        <v>2233.957414856379</v>
       </c>
       <c r="S33" t="n">
-        <v>2103.549830417827</v>
+        <v>2103.549830417825</v>
       </c>
       <c r="T33" t="n">
-        <v>1919.723795873603</v>
+        <v>1919.723795873601</v>
       </c>
       <c r="U33" t="n">
-        <v>1701.308313634423</v>
+        <v>1701.308313634421</v>
       </c>
       <c r="V33" t="n">
-        <v>1472.912691082757</v>
+        <v>1472.912691082755</v>
       </c>
       <c r="W33" t="n">
-        <v>1231.596822316067</v>
+        <v>1231.596822316065</v>
       </c>
       <c r="X33" t="n">
-        <v>1033.679834193861</v>
+        <v>1033.67983419386</v>
       </c>
       <c r="Y33" t="n">
-        <v>841.1585078434401</v>
+        <v>841.1585078434383</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1762.008379034103</v>
+        <v>686.6938728445793</v>
       </c>
       <c r="C34" t="n">
-        <v>1592.392409495784</v>
+        <v>517.0779033062596</v>
       </c>
       <c r="D34" t="n">
-        <v>1439.320516323546</v>
+        <v>517.0779033062596</v>
       </c>
       <c r="E34" t="n">
-        <v>1287.311502084865</v>
+        <v>365.0688890675784</v>
       </c>
       <c r="F34" t="n">
-        <v>1134.830847110642</v>
+        <v>212.5882340933555</v>
       </c>
       <c r="G34" t="n">
-        <v>966.9217613144142</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="H34" t="n">
-        <v>816.5348274894311</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="I34" t="n">
-        <v>816.5348274894311</v>
+        <v>44.67914829712758</v>
       </c>
       <c r="J34" t="n">
-        <v>827.7046585874045</v>
+        <v>55.84897939510103</v>
       </c>
       <c r="K34" t="n">
-        <v>976.3928213259207</v>
+        <v>204.5371421336172</v>
       </c>
       <c r="L34" t="n">
-        <v>1224.267766692518</v>
+        <v>452.4120875002143</v>
       </c>
       <c r="M34" t="n">
-        <v>1497.534589003167</v>
+        <v>725.6789098108636</v>
       </c>
       <c r="N34" t="n">
-        <v>1767.538194529909</v>
+        <v>995.682515337605</v>
       </c>
       <c r="O34" t="n">
-        <v>2006.011672262275</v>
+        <v>1234.155993069972</v>
       </c>
       <c r="P34" t="n">
-        <v>2188.782754059152</v>
+        <v>1416.927074866848</v>
       </c>
       <c r="Q34" t="n">
-        <v>2233.957414856381</v>
+        <v>1462.101735664077</v>
       </c>
       <c r="R34" t="n">
-        <v>2233.957414856381</v>
+        <v>1462.101735664077</v>
       </c>
       <c r="S34" t="n">
-        <v>2233.957414856381</v>
+        <v>1266.005069944697</v>
       </c>
       <c r="T34" t="n">
-        <v>2233.957414856381</v>
+        <v>1266.005069944697</v>
       </c>
       <c r="U34" t="n">
-        <v>1946.822302409258</v>
+        <v>1178.681641390781</v>
       </c>
       <c r="V34" t="n">
-        <v>1946.822302409258</v>
+        <v>917.9463369492036</v>
       </c>
       <c r="W34" t="n">
-        <v>1946.822302409258</v>
+        <v>917.9463369492036</v>
       </c>
       <c r="X34" t="n">
-        <v>1946.822302409258</v>
+        <v>686.6938728445793</v>
       </c>
       <c r="Y34" t="n">
-        <v>1945.563747718483</v>
+        <v>686.6938728445793</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="C35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="D35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="E35" t="n">
-        <v>834.9133772695563</v>
+        <v>954.4901478690304</v>
       </c>
       <c r="F35" t="n">
-        <v>552.8480471109224</v>
+        <v>672.4248177103966</v>
       </c>
       <c r="G35" t="n">
-        <v>270.7827169522885</v>
+        <v>390.359487551763</v>
       </c>
       <c r="H35" t="n">
-        <v>22.33957414856381</v>
+        <v>108.2941573931293</v>
       </c>
       <c r="I35" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J35" t="n">
-        <v>64.13431489381077</v>
+        <v>64.13431489381048</v>
       </c>
       <c r="K35" t="n">
-        <v>167.9988431769258</v>
+        <v>167.9988431769253</v>
       </c>
       <c r="L35" t="n">
-        <v>326.834656351548</v>
+        <v>326.8346563515476</v>
       </c>
       <c r="M35" t="n">
-        <v>529.3015208163845</v>
+        <v>529.301520816384</v>
       </c>
       <c r="N35" t="n">
-        <v>738.7932301286536</v>
+        <v>738.7932301286531</v>
       </c>
       <c r="O35" t="n">
-        <v>925.7754109831919</v>
+        <v>925.7754109831915</v>
       </c>
       <c r="P35" t="n">
         <v>1057.328313158995</v>
       </c>
       <c r="Q35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="V35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="W35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="X35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Y35" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.33957414856381</v>
+        <v>399.728116898339</v>
       </c>
       <c r="C36" t="n">
-        <v>22.33957414856381</v>
+        <v>399.728116898339</v>
       </c>
       <c r="D36" t="n">
-        <v>22.33957414856381</v>
+        <v>399.728116898339</v>
       </c>
       <c r="E36" t="n">
-        <v>22.33957414856381</v>
+        <v>399.728116898339</v>
       </c>
       <c r="F36" t="n">
-        <v>22.33957414856381</v>
+        <v>265.0343188482133</v>
       </c>
       <c r="G36" t="n">
-        <v>22.33957414856381</v>
+        <v>137.5113333416525</v>
       </c>
       <c r="H36" t="n">
-        <v>22.33957414856381</v>
+        <v>49.21620774484434</v>
       </c>
       <c r="I36" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J36" t="n">
-        <v>31.94273476123825</v>
+        <v>182.7934235889667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.8568609062181</v>
+        <v>262.7075497339465</v>
       </c>
       <c r="L36" t="n">
-        <v>256.9483302124094</v>
+        <v>407.7990190401378</v>
       </c>
       <c r="M36" t="n">
-        <v>533.4005603008865</v>
+        <v>592.8413755879405</v>
       </c>
       <c r="N36" t="n">
-        <v>779.7246627340559</v>
+        <v>794.4882766968921</v>
       </c>
       <c r="O36" t="n">
-        <v>946.1385987300066</v>
+        <v>960.9022126928428</v>
       </c>
       <c r="P36" t="n">
-        <v>1063.992337355851</v>
+        <v>1078.755951318687</v>
       </c>
       <c r="Q36" t="n">
-        <v>1102.215093465353</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R36" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S36" t="n">
-        <v>986.5711229896367</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T36" t="n">
-        <v>802.745088445412</v>
+        <v>933.1526728839647</v>
       </c>
       <c r="U36" t="n">
-        <v>689.9680535891252</v>
+        <v>714.737190644785</v>
       </c>
       <c r="V36" t="n">
-        <v>461.5724310374592</v>
+        <v>486.3415680931189</v>
       </c>
       <c r="W36" t="n">
-        <v>220.2565622707692</v>
+        <v>399.728116898339</v>
       </c>
       <c r="X36" t="n">
-        <v>22.33957414856381</v>
+        <v>399.728116898339</v>
       </c>
       <c r="Y36" t="n">
-        <v>22.33957414856381</v>
+        <v>399.728116898339</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>894.9435486204674</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="C37" t="n">
-        <v>725.3275790821476</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="D37" t="n">
-        <v>725.3275790821476</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="E37" t="n">
-        <v>606.9259053119554</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="F37" t="n">
-        <v>454.4452503377324</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="G37" t="n">
-        <v>286.5361645415045</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="H37" t="n">
-        <v>136.1492307165214</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="I37" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856379</v>
       </c>
       <c r="J37" t="n">
-        <v>33.50940524653726</v>
+        <v>33.50940524653724</v>
       </c>
       <c r="K37" t="n">
-        <v>44.81834069948561</v>
+        <v>182.1975679850534</v>
       </c>
       <c r="L37" t="n">
-        <v>281.042506249498</v>
+        <v>430.0725133516506</v>
       </c>
       <c r="M37" t="n">
-        <v>554.3093285601474</v>
+        <v>703.3393356622998</v>
       </c>
       <c r="N37" t="n">
-        <v>824.3129340868887</v>
+        <v>905.5687725118366</v>
       </c>
       <c r="O37" t="n">
-        <v>1062.786411819256</v>
+        <v>934.2076256313128</v>
       </c>
       <c r="P37" t="n">
-        <v>1071.804046630961</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R37" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S37" t="n">
-        <v>1116.97870742819</v>
+        <v>920.8820417088089</v>
       </c>
       <c r="T37" t="n">
-        <v>1116.97870742819</v>
+        <v>692.0213751870635</v>
       </c>
       <c r="U37" t="n">
-        <v>1116.97870742819</v>
+        <v>409.9560450284299</v>
       </c>
       <c r="V37" t="n">
-        <v>1116.97870742819</v>
+        <v>409.9560450284299</v>
       </c>
       <c r="W37" t="n">
-        <v>1116.97870742819</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="X37" t="n">
-        <v>1116.97870742819</v>
+        <v>127.8907148697962</v>
       </c>
       <c r="Y37" t="n">
-        <v>894.9435486204674</v>
+        <v>127.8907148697962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22.33957414856381</v>
+        <v>298.1429587788419</v>
       </c>
       <c r="C38" t="n">
-        <v>22.33957414856381</v>
+        <v>298.1429587788419</v>
       </c>
       <c r="D38" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="E38" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="F38" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="G38" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="H38" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I38" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J38" t="n">
-        <v>64.13431489381077</v>
+        <v>64.13431489381048</v>
       </c>
       <c r="K38" t="n">
-        <v>167.9988431769258</v>
+        <v>167.9988431769256</v>
       </c>
       <c r="L38" t="n">
-        <v>326.834656351548</v>
+        <v>326.8346563515478</v>
       </c>
       <c r="M38" t="n">
-        <v>529.3015208163845</v>
+        <v>529.3015208163841</v>
       </c>
       <c r="N38" t="n">
-        <v>738.7932301286536</v>
+        <v>738.7932301286532</v>
       </c>
       <c r="O38" t="n">
-        <v>925.7754109831919</v>
+        <v>925.7754109831914</v>
       </c>
       <c r="P38" t="n">
-        <v>1057.328313158995</v>
+        <v>1057.328313158994</v>
       </c>
       <c r="Q38" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R38" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S38" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T38" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U38" t="n">
-        <v>862.2736190961103</v>
+        <v>862.2736190961092</v>
       </c>
       <c r="V38" t="n">
-        <v>580.2082889374765</v>
+        <v>580.2082889374756</v>
       </c>
       <c r="W38" t="n">
-        <v>580.2082889374765</v>
+        <v>298.1429587788419</v>
       </c>
       <c r="X38" t="n">
-        <v>298.1429587788426</v>
+        <v>298.1429587788419</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.1429587788426</v>
+        <v>298.1429587788419</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>516.8596316712807</v>
+        <v>169.3675840916925</v>
       </c>
       <c r="C39" t="n">
-        <v>516.8596316712807</v>
+        <v>169.3675840916925</v>
       </c>
       <c r="D39" t="n">
-        <v>399.728116898339</v>
+        <v>169.3675840916925</v>
       </c>
       <c r="E39" t="n">
-        <v>399.728116898339</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="F39" t="n">
-        <v>265.0343188482133</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="G39" t="n">
-        <v>137.5113333416526</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="H39" t="n">
-        <v>49.21620774484436</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I39" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0298096261305</v>
+        <v>182.7934235889662</v>
       </c>
       <c r="K39" t="n">
-        <v>247.9439357711103</v>
+        <v>262.7075497339461</v>
       </c>
       <c r="L39" t="n">
-        <v>393.0354050773016</v>
+        <v>407.7990190401373</v>
       </c>
       <c r="M39" t="n">
-        <v>578.0777616251044</v>
+        <v>592.8413755879401</v>
       </c>
       <c r="N39" t="n">
-        <v>779.7246627340559</v>
+        <v>794.4882766968916</v>
       </c>
       <c r="O39" t="n">
-        <v>946.1385987300066</v>
+        <v>960.9022126928423</v>
       </c>
       <c r="P39" t="n">
-        <v>1063.992337355851</v>
+        <v>1078.755951318687</v>
       </c>
       <c r="Q39" t="n">
-        <v>1102.215093465353</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R39" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S39" t="n">
-        <v>986.5711229896367</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T39" t="n">
-        <v>986.5711229896367</v>
+        <v>1055.411545771434</v>
       </c>
       <c r="U39" t="n">
-        <v>986.5711229896367</v>
+        <v>836.996063532254</v>
       </c>
       <c r="V39" t="n">
-        <v>758.1755004379706</v>
+        <v>608.6004409805879</v>
       </c>
       <c r="W39" t="n">
-        <v>516.8596316712807</v>
+        <v>367.2845722138979</v>
       </c>
       <c r="X39" t="n">
-        <v>516.8596316712807</v>
+        <v>169.3675840916925</v>
       </c>
       <c r="Y39" t="n">
-        <v>516.8596316712807</v>
+        <v>169.3675840916925</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.8646294831115</v>
+        <v>798.1971561549163</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2486599447918</v>
+        <v>798.1971561549163</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2486599447918</v>
+        <v>645.125262982679</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2486599447918</v>
+        <v>493.1162487439978</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2486599447918</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="G40" t="n">
-        <v>22.33957414856381</v>
+        <v>172.7265079735469</v>
       </c>
       <c r="H40" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I40" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J40" t="n">
-        <v>22.33957414856381</v>
+        <v>33.50940524653724</v>
       </c>
       <c r="K40" t="n">
-        <v>33.64850960151216</v>
+        <v>182.1975679850534</v>
       </c>
       <c r="L40" t="n">
-        <v>281.5234549681093</v>
+        <v>430.0725133516506</v>
       </c>
       <c r="M40" t="n">
-        <v>554.7902772787586</v>
+        <v>473.5974020718433</v>
       </c>
       <c r="N40" t="n">
-        <v>824.7938828054999</v>
+        <v>650.5594871017169</v>
       </c>
       <c r="O40" t="n">
-        <v>1063.267360537867</v>
+        <v>889.0329648340837</v>
       </c>
       <c r="P40" t="n">
-        <v>1116.97870742819</v>
+        <v>1071.80404663096</v>
       </c>
       <c r="Q40" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R40" t="n">
-        <v>1116.97870742819</v>
+        <v>1012.900002283206</v>
       </c>
       <c r="S40" t="n">
-        <v>1116.97870742819</v>
+        <v>1012.900002283206</v>
       </c>
       <c r="T40" t="n">
-        <v>1116.97870742819</v>
+        <v>1012.900002283206</v>
       </c>
       <c r="U40" t="n">
-        <v>851.852398029313</v>
+        <v>1012.900002283206</v>
       </c>
       <c r="V40" t="n">
-        <v>591.1170935877357</v>
+        <v>1012.900002283206</v>
       </c>
       <c r="W40" t="n">
-        <v>591.1170935877357</v>
+        <v>1012.900002283206</v>
       </c>
       <c r="X40" t="n">
-        <v>359.8646294831115</v>
+        <v>798.1971561549163</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.8646294831115</v>
+        <v>798.1971561549163</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.4049043071977</v>
+        <v>586.470234465831</v>
       </c>
       <c r="C41" t="n">
-        <v>304.4049043071977</v>
+        <v>586.470234465831</v>
       </c>
       <c r="D41" t="n">
-        <v>304.4049043071977</v>
+        <v>586.470234465831</v>
       </c>
       <c r="E41" t="n">
-        <v>304.4049043071977</v>
+        <v>586.470234465831</v>
       </c>
       <c r="F41" t="n">
-        <v>304.4049043071977</v>
+        <v>304.4049043071974</v>
       </c>
       <c r="G41" t="n">
-        <v>22.33957414856381</v>
+        <v>304.4049043071974</v>
       </c>
       <c r="H41" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I41" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J41" t="n">
-        <v>64.13431489381082</v>
+        <v>64.13431489381034</v>
       </c>
       <c r="K41" t="n">
-        <v>167.998843176926</v>
+        <v>167.9988431769253</v>
       </c>
       <c r="L41" t="n">
-        <v>326.8346563515482</v>
+        <v>326.8346563515476</v>
       </c>
       <c r="M41" t="n">
-        <v>529.3015208163847</v>
+        <v>529.301520816384</v>
       </c>
       <c r="N41" t="n">
-        <v>738.7932301286538</v>
+        <v>738.7932301286531</v>
       </c>
       <c r="O41" t="n">
-        <v>925.7754109831922</v>
+        <v>925.7754109831915</v>
       </c>
       <c r="P41" t="n">
-        <v>1057.328313158995</v>
+        <v>1057.328313158994</v>
       </c>
       <c r="Q41" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R41" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S41" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T41" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U41" t="n">
-        <v>862.2736190961103</v>
+        <v>862.2736190961092</v>
       </c>
       <c r="V41" t="n">
-        <v>580.2082889374765</v>
+        <v>862.2736190961092</v>
       </c>
       <c r="W41" t="n">
-        <v>580.2082889374765</v>
+        <v>862.2736190961092</v>
       </c>
       <c r="X41" t="n">
-        <v>580.2082889374765</v>
+        <v>862.2736190961092</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.4049043071977</v>
+        <v>586.470234465831</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.33957414856381</v>
+        <v>236.3304075202323</v>
       </c>
       <c r="C42" t="n">
-        <v>22.33957414856381</v>
+        <v>74.62673476118698</v>
       </c>
       <c r="D42" t="n">
-        <v>22.33957414856381</v>
+        <v>74.62673476118698</v>
       </c>
       <c r="E42" t="n">
-        <v>22.33957414856381</v>
+        <v>74.62673476118698</v>
       </c>
       <c r="F42" t="n">
-        <v>22.33957414856381</v>
+        <v>74.62673476118698</v>
       </c>
       <c r="G42" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="H42" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I42" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J42" t="n">
-        <v>31.94273476123825</v>
+        <v>168.0298096261291</v>
       </c>
       <c r="K42" t="n">
-        <v>111.8568609062181</v>
+        <v>247.943935771109</v>
       </c>
       <c r="L42" t="n">
-        <v>282.9971109847753</v>
+        <v>393.0354050773002</v>
       </c>
       <c r="M42" t="n">
-        <v>468.039467532578</v>
+        <v>578.077761625103</v>
       </c>
       <c r="N42" t="n">
-        <v>669.6863686415295</v>
+        <v>779.7246627340545</v>
       </c>
       <c r="O42" t="n">
-        <v>946.1385987300066</v>
+        <v>946.1385987300052</v>
       </c>
       <c r="P42" t="n">
-        <v>1063.992337355851</v>
+        <v>1063.992337355849</v>
       </c>
       <c r="Q42" t="n">
-        <v>1102.215093465353</v>
+        <v>1102.215093465352</v>
       </c>
       <c r="R42" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S42" t="n">
-        <v>1086.813908600745</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T42" t="n">
-        <v>902.9878740565207</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U42" t="n">
-        <v>684.572391817341</v>
+        <v>898.5632251890095</v>
       </c>
       <c r="V42" t="n">
-        <v>456.1767692656749</v>
+        <v>670.1676026373434</v>
       </c>
       <c r="W42" t="n">
-        <v>214.860900498985</v>
+        <v>428.8517338706534</v>
       </c>
       <c r="X42" t="n">
-        <v>214.860900498985</v>
+        <v>428.8517338706534</v>
       </c>
       <c r="Y42" t="n">
-        <v>22.33957414856381</v>
+        <v>236.3304075202323</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.3881799360876</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="C43" t="n">
-        <v>541.7722103977678</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="D43" t="n">
-        <v>541.7722103977678</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="E43" t="n">
-        <v>541.7722103977678</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="F43" t="n">
-        <v>389.2915554235449</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="G43" t="n">
-        <v>221.382469627317</v>
+        <v>172.7265079735469</v>
       </c>
       <c r="H43" t="n">
-        <v>70.99553580233382</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I43" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J43" t="n">
-        <v>22.33957414856381</v>
+        <v>33.50940524653724</v>
       </c>
       <c r="K43" t="n">
-        <v>33.64850960151216</v>
+        <v>44.8183406994856</v>
       </c>
       <c r="L43" t="n">
-        <v>281.5234549681093</v>
+        <v>292.6932860660827</v>
       </c>
       <c r="M43" t="n">
-        <v>554.7902772787586</v>
+        <v>565.960108376732</v>
       </c>
       <c r="N43" t="n">
-        <v>824.7938828054999</v>
+        <v>835.9637139034734</v>
       </c>
       <c r="O43" t="n">
-        <v>1063.267360537867</v>
+        <v>934.2076256313126</v>
       </c>
       <c r="P43" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R43" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S43" t="n">
-        <v>1116.97870742819</v>
+        <v>920.8820417088086</v>
       </c>
       <c r="T43" t="n">
-        <v>1116.97870742819</v>
+        <v>692.0213751870633</v>
       </c>
       <c r="U43" t="n">
-        <v>1116.97870742819</v>
+        <v>692.0213751870633</v>
       </c>
       <c r="V43" t="n">
-        <v>1116.97870742819</v>
+        <v>692.0213751870633</v>
       </c>
       <c r="W43" t="n">
-        <v>1116.97870742819</v>
+        <v>571.8880578743991</v>
       </c>
       <c r="X43" t="n">
-        <v>1116.97870742819</v>
+        <v>340.6355937697749</v>
       </c>
       <c r="Y43" t="n">
-        <v>894.9435486204674</v>
+        <v>340.6355937697749</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>304.4049043071977</v>
+        <v>484.5309014859089</v>
       </c>
       <c r="C44" t="n">
-        <v>22.33957414856381</v>
+        <v>484.5309014859089</v>
       </c>
       <c r="D44" t="n">
-        <v>22.33957414856381</v>
+        <v>484.5309014859089</v>
       </c>
       <c r="E44" t="n">
-        <v>22.33957414856381</v>
+        <v>484.5309014859089</v>
       </c>
       <c r="F44" t="n">
-        <v>22.33957414856381</v>
+        <v>202.4655713272753</v>
       </c>
       <c r="G44" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="H44" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I44" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J44" t="n">
-        <v>64.13431489381077</v>
+        <v>64.13431489381074</v>
       </c>
       <c r="K44" t="n">
-        <v>167.9988431769258</v>
+        <v>167.9988431769257</v>
       </c>
       <c r="L44" t="n">
-        <v>326.834656351548</v>
+        <v>326.8346563515479</v>
       </c>
       <c r="M44" t="n">
-        <v>529.3015208163845</v>
+        <v>529.3015208163844</v>
       </c>
       <c r="N44" t="n">
-        <v>738.7932301286536</v>
+        <v>738.7932301286535</v>
       </c>
       <c r="O44" t="n">
-        <v>925.7754109831919</v>
+        <v>925.7754109831918</v>
       </c>
       <c r="P44" t="n">
         <v>1057.328313158995</v>
       </c>
       <c r="Q44" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R44" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S44" t="n">
-        <v>1116.97870742819</v>
+        <v>981.0922351846446</v>
       </c>
       <c r="T44" t="n">
-        <v>1116.97870742819</v>
+        <v>766.5962316445425</v>
       </c>
       <c r="U44" t="n">
-        <v>1116.97870742819</v>
+        <v>766.5962316445425</v>
       </c>
       <c r="V44" t="n">
-        <v>1116.97870742819</v>
+        <v>766.5962316445425</v>
       </c>
       <c r="W44" t="n">
-        <v>868.5355646244657</v>
+        <v>766.5962316445425</v>
       </c>
       <c r="X44" t="n">
-        <v>868.5355646244657</v>
+        <v>766.5962316445425</v>
       </c>
       <c r="Y44" t="n">
-        <v>586.4702344658317</v>
+        <v>484.5309014859089</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>22.33957414856381</v>
+        <v>692.8988175074596</v>
       </c>
       <c r="C45" t="n">
-        <v>22.33957414856381</v>
+        <v>531.1951447484144</v>
       </c>
       <c r="D45" t="n">
-        <v>22.33957414856381</v>
+        <v>392.3565077386264</v>
       </c>
       <c r="E45" t="n">
-        <v>22.33957414856381</v>
+        <v>245.3284977954976</v>
       </c>
       <c r="F45" t="n">
-        <v>22.33957414856381</v>
+        <v>110.634699745372</v>
       </c>
       <c r="G45" t="n">
-        <v>22.33957414856381</v>
+        <v>110.634699745372</v>
       </c>
       <c r="H45" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="I45" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J45" t="n">
-        <v>182.7934235889676</v>
+        <v>182.7934235889662</v>
       </c>
       <c r="K45" t="n">
-        <v>262.7075497339474</v>
+        <v>262.7075497339461</v>
       </c>
       <c r="L45" t="n">
-        <v>407.7990190401387</v>
+        <v>407.7990190401373</v>
       </c>
       <c r="M45" t="n">
-        <v>592.8413755879415</v>
+        <v>592.8413755879401</v>
       </c>
       <c r="N45" t="n">
-        <v>794.488276696893</v>
+        <v>794.4882766968916</v>
       </c>
       <c r="O45" t="n">
-        <v>960.9022126928437</v>
+        <v>960.9022126928423</v>
       </c>
       <c r="P45" t="n">
-        <v>1078.755951318688</v>
+        <v>1078.755951318687</v>
       </c>
       <c r="Q45" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R45" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S45" t="n">
-        <v>1116.97870742819</v>
+        <v>986.5711229896356</v>
       </c>
       <c r="T45" t="n">
-        <v>1062.407316837782</v>
+        <v>986.5711229896356</v>
       </c>
       <c r="U45" t="n">
-        <v>843.9918345986018</v>
+        <v>885.4201438578808</v>
       </c>
       <c r="V45" t="n">
-        <v>615.5962120469358</v>
+        <v>885.4201438578808</v>
       </c>
       <c r="W45" t="n">
-        <v>374.2803432802459</v>
+        <v>885.4201438578808</v>
       </c>
       <c r="X45" t="n">
-        <v>374.2803432802459</v>
+        <v>885.4201438578808</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.7590169298247</v>
+        <v>692.8988175074596</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.8202291227867</v>
+        <v>776.5418748502751</v>
       </c>
       <c r="C46" t="n">
-        <v>174.8202291227867</v>
+        <v>606.9259053119554</v>
       </c>
       <c r="D46" t="n">
-        <v>174.8202291227867</v>
+        <v>606.9259053119554</v>
       </c>
       <c r="E46" t="n">
-        <v>174.8202291227867</v>
+        <v>606.9259053119554</v>
       </c>
       <c r="F46" t="n">
-        <v>22.33957414856381</v>
+        <v>454.4452503377324</v>
       </c>
       <c r="G46" t="n">
-        <v>22.33957414856381</v>
+        <v>286.5361645415045</v>
       </c>
       <c r="H46" t="n">
-        <v>22.33957414856381</v>
+        <v>136.1492307165213</v>
       </c>
       <c r="I46" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="J46" t="n">
-        <v>22.33957414856381</v>
+        <v>22.33957414856378</v>
       </c>
       <c r="K46" t="n">
-        <v>33.64850960151216</v>
+        <v>78.3422216801286</v>
       </c>
       <c r="L46" t="n">
-        <v>281.5234549681093</v>
+        <v>326.2171670467258</v>
       </c>
       <c r="M46" t="n">
-        <v>554.7902772787586</v>
+        <v>599.4839893573751</v>
       </c>
       <c r="N46" t="n">
-        <v>824.7938828054999</v>
+        <v>869.4875948841164</v>
       </c>
       <c r="O46" t="n">
-        <v>1063.267360537867</v>
+        <v>1107.961072616483</v>
       </c>
       <c r="P46" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="R46" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="S46" t="n">
-        <v>1116.97870742819</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="T46" t="n">
-        <v>999.6861938816319</v>
+        <v>1116.978707428189</v>
       </c>
       <c r="U46" t="n">
-        <v>717.6208637229979</v>
+        <v>834.9133772695556</v>
       </c>
       <c r="V46" t="n">
-        <v>456.8855592814206</v>
+        <v>834.9133772695556</v>
       </c>
       <c r="W46" t="n">
-        <v>174.8202291227867</v>
+        <v>834.9133772695556</v>
       </c>
       <c r="X46" t="n">
-        <v>174.8202291227867</v>
+        <v>776.5418748502751</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.8202291227867</v>
+        <v>776.5418748502751</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>35.04730534342752</v>
+        <v>35.04730534342755</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>137.4616917827181</v>
+        <v>152.3744331593217</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.17817075471706</v>
+        <v>44.26542937811391</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.44445604481966</v>
+        <v>32.44445604481967</v>
       </c>
       <c r="K13" t="n">
-        <v>45.14516371577459</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>211.2171120040207</v>
+        <v>80.8537434115419</v>
       </c>
       <c r="M13" t="n">
         <v>232.0625591822793</v>
@@ -8865,10 +8865,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.31487538882553</v>
+        <v>39.31487538882556</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>137.461691782719</v>
+        <v>152.3744331593217</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.17817075471706</v>
+        <v>44.26542937811391</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72711371954033</v>
+        <v>32.44445604481967</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>45.14516371577459</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.17738142988009</v>
+        <v>39.31487538882556</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>152.3744331593217</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.3744331593221</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>44.26542937811391</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72711371954033</v>
+        <v>32.44445604481967</v>
       </c>
       <c r="K19" t="n">
-        <v>138.7668962480483</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M19" t="n">
-        <v>81.52719847303396</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N19" t="n">
         <v>223.3630318978003</v>
@@ -9339,10 +9339,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>45.14516371577459</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.9458458910769</v>
+        <v>39.31487538882556</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>137.4616917827185</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>137.4616917827192</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9561,25 +9561,25 @@
         <v>32.44445604481967</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>45.14516371577465</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M22" t="n">
         <v>232.0625591822793</v>
       </c>
       <c r="N22" t="n">
-        <v>119.8189085590432</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O22" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P22" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.9458458910769</v>
+        <v>39.31487538882556</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>353.9773694061795</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>330.329688473152</v>
+        <v>317.7393096368806</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>369.6184639620358</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,25 +9716,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>411.9323140108717</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>371.5778824536883</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>186.5471154834005</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>48.33255865715677</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
-        <v>354.4531177942316</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>353.9773694061795</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>346.881566529985</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>408.2975700214537</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>85.43134583487716</v>
+        <v>35.04730534342755</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>165.6612438463418</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>390.3944688697005</v>
+        <v>390.3944688696999</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>71.93968901937522</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>369.6184639620362</v>
+        <v>46.14313753270625</v>
       </c>
       <c r="P29" t="n">
-        <v>314.6885939172952</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>243.6738142740674</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>371.5778824536883</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>354.8056152202048</v>
+        <v>48.33255865715662</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>398.0491383861939</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>287.6444513821657</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>369.6184639620362</v>
+        <v>265.9687372564022</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>85.43134583487716</v>
+        <v>35.04730534342755</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>73.41906464542087</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>411.9323140108717</v>
+        <v>411.9323140108712</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>97.02619500764041</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>390.3944688697004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>152.3744331593217</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>92.33320559664071</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>45.12848618607873</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.17817075471706</v>
+        <v>44.26542937811391</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L37" t="n">
-        <v>199.448647542824</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M37" t="n">
         <v>232.0625591822793</v>
       </c>
       <c r="N37" t="n">
-        <v>223.3630318978003</v>
+        <v>154.9042756581998</v>
       </c>
       <c r="O37" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.9458458910769</v>
+        <v>39.31487538882556</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>137.4616917827195</v>
+        <v>152.3744331593212</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.17817075471706</v>
+        <v>44.26542937811391</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>32.44445604481967</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L40" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M40" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>223.3630318978003</v>
+        <v>129.3816980625803</v>
       </c>
       <c r="O40" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P40" t="n">
-        <v>45.1451637157755</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.31487538882556</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>137.4616917827181</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>26.31189977006665</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>111.1497920126529</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32.44445604481967</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11232,10 +11232,10 @@
         <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
-        <v>211.9541662756472</v>
+        <v>70.30814000844754</v>
       </c>
       <c r="P43" t="n">
-        <v>45.14516371577551</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q43" t="n">
         <v>39.31487538882556</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>152.3744331593226</v>
+        <v>152.3744331593212</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>32.44445604481967</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>45.1451637157742</v>
       </c>
       <c r="L46" t="n">
         <v>211.2171120040207</v>
@@ -11472,7 +11472,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>45.1451637157755</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>39.31487538882556</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.8584272657915</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>98.86974422347333</v>
       </c>
       <c r="D11" t="n">
-        <v>123.1370137493613</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>111.5931858379068</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -23278,7 +23278,7 @@
         <v>306.6492527266272</v>
       </c>
       <c r="I11" t="n">
-        <v>85.09503741211984</v>
+        <v>85.09503741211985</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.5276075211092</v>
+        <v>100.9199396501228</v>
       </c>
       <c r="T11" t="n">
-        <v>212.351043504701</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.1580374487592</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>54.36480450597071</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>79.66490398392762</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.3617600128729</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.83427869165868</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -23357,7 +23357,7 @@
         <v>87.41217434084012</v>
       </c>
       <c r="I12" t="n">
-        <v>26.60786726031774</v>
+        <v>26.60786726031775</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>166.0746674018137</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2313274167878</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>146.7174490822099</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2299949382657</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>194.1356990621868</v>
       </c>
       <c r="T13" t="n">
-        <v>226.5720598565278</v>
+        <v>129.0066928471312</v>
       </c>
       <c r="U13" t="n">
         <v>284.2637613226513</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>4.050160610727517</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.8584272657914</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>132.1557097048332</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -23509,10 +23509,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>409.71237825052</v>
+        <v>130.4677013934726</v>
       </c>
       <c r="H14" t="n">
-        <v>306.6492527266272</v>
+        <v>27.40457586957984</v>
       </c>
       <c r="I14" t="n">
         <v>85.09503741211985</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.5276075211092</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.351043504701</v>
@@ -23557,13 +23557,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>79.66490398392762</v>
       </c>
       <c r="X14" t="n">
-        <v>98.96516221667406</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.3617600128728</v>
+        <v>278.1753330153423</v>
       </c>
     </row>
     <row r="15">
@@ -23582,10 +23582,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>46.76015569956536</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>126.2477556514951</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>104.5820629090642</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>181.9877741987825</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>216.2313274167878</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>148.8830644867333</v>
       </c>
       <c r="I16" t="n">
-        <v>90.09712332190468</v>
+        <v>36.22291845276709</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>103.037918093533</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.1356990621868</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.5720598565278</v>
       </c>
       <c r="U16" t="n">
-        <v>5.019084465603798</v>
+        <v>5.019084465603953</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>4.050160610727517</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>123.1370137493613</v>
+        <v>89.85104826800131</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>130.7650019258839</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>130.4677013934725</v>
+        <v>376.1047103795337</v>
       </c>
       <c r="H17" t="n">
-        <v>27.40457586957973</v>
+        <v>306.6492527266272</v>
       </c>
       <c r="I17" t="n">
         <v>85.09503741211985</v>
@@ -23785,7 +23785,7 @@
         <v>134.5276075211092</v>
       </c>
       <c r="T17" t="n">
-        <v>212.351043504701</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>252.1580374487592</v>
@@ -23794,10 +23794,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>79.66490398392762</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>98.96516221667423</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>97.73059284889707</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.2313274167878</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>104.5820629090645</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>94.25144139745683</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2299949382657</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>103.037918093533</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>20.24063168980092</v>
       </c>
       <c r="T19" t="n">
         <v>226.5720598565278</v>
@@ -23949,7 +23949,7 @@
         <v>284.2637613226513</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -23971,22 +23971,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>98.86974422347316</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>190.7709879181241</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>111.5931858379068</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>163.7536668748325</v>
+        <v>409.71237825052</v>
       </c>
       <c r="H20" t="n">
-        <v>27.40457586957969</v>
+        <v>306.6492527266272</v>
       </c>
       <c r="I20" t="n">
         <v>85.09503741211985</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>134.5276075211092</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.351043504701</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.1580374487592</v>
       </c>
       <c r="V20" t="n">
-        <v>54.36480450597054</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>79.66490398392756</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.72444872160327</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>126.2477556514951</v>
       </c>
       <c r="H21" t="n">
         <v>87.41217434084012</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>181.9877741987825</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2313274167878</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>113.1904017971992</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>103.037918093533</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.1356990621868</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>188.4365624845326</v>
+        <v>127.9144874159214</v>
       </c>
       <c r="U22" t="n">
-        <v>5.019084465603783</v>
+        <v>5.019084465603896</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>4.050160610727346</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>89.84454472728339</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>231.5614422880511</v>
+        <v>306.6492527266272</v>
       </c>
       <c r="I23" t="n">
         <v>85.09503741211985</v>
@@ -24262,16 +24262,16 @@
         <v>212.351043504701</v>
       </c>
       <c r="U23" t="n">
-        <v>252.1580374487592</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>186.0199562397186</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>186.0199562397204</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>35.58395433928689</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>103.037918093533</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.1356990621868</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2637613226513</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6294960905381</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24445,16 +24445,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>367.4792642212719</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.09503741211985</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>134.5276075211092</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>25.38419055871391</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.1580374487592</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>71.99991463856261</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41217434084012</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.60786726031775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>56.91644764555063</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.135617229061097</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>226.5720598565278</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2637613226513</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>41.65413039386317</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24682,7 +24682,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>97.03383476694182</v>
+        <v>253.6894585261577</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>306.6492527266272</v>
       </c>
       <c r="I29" t="n">
-        <v>85.09503741211985</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.60786726031775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>56.91644764555064</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>159.4120889794027</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>58.50288140562716</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2299949382657</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>103.037918093533</v>
       </c>
       <c r="S31" t="n">
         <v>194.1356990621868</v>
       </c>
       <c r="T31" t="n">
-        <v>226.5720598565278</v>
+        <v>97.76499523405906</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2637613226513</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>409.71237825052</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>306.6492527266272</v>
@@ -24973,19 +24973,19 @@
         <v>212.351043504701</v>
       </c>
       <c r="U32" t="n">
-        <v>252.1580374487592</v>
+        <v>22.63604482898296</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>52.14868350186219</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>126.2477556514951</v>
+        <v>71.99991463856261</v>
       </c>
       <c r="H33" t="n">
-        <v>59.77220058822358</v>
+        <v>87.41217434084012</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.60786726031775</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I34" t="n">
         <v>112.671560002278</v>
@@ -25125,25 +25125,25 @@
         <v>103.037918093533</v>
       </c>
       <c r="S34" t="n">
-        <v>194.1356990621868</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>226.5720598565278</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>197.8135670542746</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5688380757783</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>111.5931858379066</v>
+        <v>229.9741887313867</v>
       </c>
       <c r="F35" t="n">
-        <v>130.7650019258838</v>
+        <v>130.765001925884</v>
       </c>
       <c r="G35" t="n">
-        <v>130.4677013934724</v>
+        <v>130.4677013934726</v>
       </c>
       <c r="H35" t="n">
-        <v>60.69054135093978</v>
+        <v>27.40457586957984</v>
       </c>
       <c r="I35" t="n">
-        <v>85.09503741211985</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25244,16 +25244,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>126.2477556514951</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41217434084012</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.60786726031775</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>104.582062909064</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>153.1553933961909</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
         <v>190.5961130869169</v>
@@ -25314,25 +25314,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>33.27126706380402</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>61.73436562424564</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.8830644867333</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>103.037918093533</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1356990621868</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.5720598565278</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2637613226513</v>
+        <v>5.019084465603953</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>4.050160610727517</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.057753338863</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>96.05037434107328</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>54.36480450597048</v>
+        <v>54.36480450597077</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>79.66490398392767</v>
       </c>
       <c r="X38" t="n">
-        <v>98.965162216674</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25475,22 +25475,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>21.49005101447774</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>126.2477556514951</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41217434084012</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.60786726031775</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T39" t="n">
-        <v>181.9877741987825</v>
+        <v>121.0362841585944</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2313274167878</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -25551,22 +25551,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>112.671560002278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>103.037918093533</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>194.1356990621868</v>
@@ -25605,16 +25605,16 @@
         <v>226.5720598565278</v>
       </c>
       <c r="U40" t="n">
-        <v>21.78871501776281</v>
+        <v>284.2637613226513</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16.38412179657084</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25639,13 +25639,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>130.7650019258841</v>
       </c>
       <c r="G41" t="n">
-        <v>130.4677013934724</v>
+        <v>409.71237825052</v>
       </c>
       <c r="H41" t="n">
-        <v>306.6492527266272</v>
+        <v>27.4045758695799</v>
       </c>
       <c r="I41" t="n">
         <v>85.09503741211985</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>54.36480450597048</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -25696,7 +25696,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.5610860859444</v>
+        <v>116.561086085945</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -25721,7 +25721,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.2477556514951</v>
+        <v>74.48346664499817</v>
       </c>
       <c r="H42" t="n">
         <v>87.41217434084012</v>
@@ -25757,10 +25757,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>99.24035775499758</v>
+        <v>129.103508594168</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.9877741987825</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -25797,7 +25797,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>64.50215796504567</v>
+        <v>112.671560002278</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>103.037918093533</v>
       </c>
       <c r="S43" t="n">
-        <v>194.1356990621868</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.5720598565278</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>284.2637613226513</v>
@@ -25848,13 +25848,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>164.3628533282373</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>110.8584272657914</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>98.86974422347311</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
@@ -25876,10 +25876,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>130.7650019258841</v>
       </c>
       <c r="G44" t="n">
-        <v>409.71237825052</v>
+        <v>231.3876410435956</v>
       </c>
       <c r="H44" t="n">
         <v>306.6492527266272</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>134.5276075211092</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.351043504701</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.1580374487592</v>
@@ -25927,13 +25927,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>112.9508694652876</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>110.3617600128728</v>
+        <v>110.361760012873</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>126.2477556514951</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41217434084012</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>26.60786726031775</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>129.103508594168</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>127.9620975142778</v>
+        <v>181.9877741987825</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>116.0918580763506</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -26025,7 +26025,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2299949382657</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.8830644867333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.671560002278</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>194.1356990621868</v>
       </c>
       <c r="T46" t="n">
-        <v>110.452471445435</v>
+        <v>226.5720598565278</v>
       </c>
       <c r="U46" t="n">
-        <v>5.019084465603741</v>
+        <v>5.01908446560401</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>4.050160610727289</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>171.1521520684904</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404172.5446437778</v>
+        <v>404172.5446437777</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>404172.5446437779</v>
+        <v>404172.5446437778</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608134.3772707316</v>
+        <v>608134.3772707313</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608134.3772707318</v>
+        <v>608134.3772707313</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608134.3772707316</v>
+        <v>608134.3772707313</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608134.3772707316</v>
+        <v>608134.3772707313</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>404172.544643778</v>
+        <v>404172.5446437778</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>404172.5446437779</v>
+        <v>404172.5446437778</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404172.5446437779</v>
+        <v>404172.5446437778</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404172.5446437778</v>
+        <v>404172.5446437777</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>536113.642055113</v>
+      </c>
+      <c r="C2" t="n">
         <v>536113.6420551131</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>536113.642055113</v>
-      </c>
-      <c r="D2" t="n">
-        <v>536113.6420551131</v>
       </c>
       <c r="E2" t="n">
         <v>259961.0405337254</v>
       </c>
       <c r="F2" t="n">
+        <v>259961.0405337255</v>
+      </c>
+      <c r="G2" t="n">
         <v>259961.0405337254</v>
       </c>
-      <c r="G2" t="n">
-        <v>259961.0405337255</v>
-      </c>
       <c r="H2" t="n">
-        <v>259961.0405337255</v>
+        <v>259961.0405337254</v>
       </c>
       <c r="I2" t="n">
-        <v>357876.9351043651</v>
+        <v>357876.9351043652</v>
       </c>
       <c r="J2" t="n">
-        <v>357876.9351043652</v>
+        <v>357876.9351043649</v>
       </c>
       <c r="K2" t="n">
-        <v>357876.9351043652</v>
+        <v>357876.9351043649</v>
       </c>
       <c r="L2" t="n">
         <v>357876.9351043651</v>
       </c>
       <c r="M2" t="n">
-        <v>259961.0405337255</v>
+        <v>259961.0405337254</v>
       </c>
       <c r="N2" t="n">
-        <v>259961.0405337255</v>
+        <v>259961.0405337254</v>
       </c>
       <c r="O2" t="n">
-        <v>259961.0405337255</v>
+        <v>259961.0405337253</v>
       </c>
       <c r="P2" t="n">
-        <v>259961.0405337255</v>
+        <v>259961.0405337254</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>529147.6024747959</v>
+        <v>529147.6024747958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>74257.02371450297</v>
+        <v>74257.02371450287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>406144.6554248994</v>
       </c>
       <c r="E4" t="n">
+        <v>14473.13128782423</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14473.13128782423</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14473.13128782423</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14473.13128782423</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71775.20202420943</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71775.20202420944</v>
+      </c>
+      <c r="K4" t="n">
+        <v>71775.20202420943</v>
+      </c>
+      <c r="L4" t="n">
+        <v>71775.20202420943</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14473.13128782423</v>
+      </c>
+      <c r="N4" t="n">
         <v>14473.13128782422</v>
       </c>
-      <c r="F4" t="n">
-        <v>14473.13128782425</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14473.13128782424</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14473.13128782425</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71775.20202420952</v>
-      </c>
-      <c r="J4" t="n">
-        <v>71775.20202420953</v>
-      </c>
-      <c r="K4" t="n">
-        <v>71775.20202420952</v>
-      </c>
-      <c r="L4" t="n">
-        <v>71775.20202420952</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14473.13128782425</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14473.13128782426</v>
-      </c>
       <c r="O4" t="n">
-        <v>14473.13128782426</v>
+        <v>14473.13128782422</v>
       </c>
       <c r="P4" t="n">
-        <v>14473.13128782426</v>
+        <v>14473.13128782422</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
       <c r="F5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
       <c r="G5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
       <c r="H5" t="n">
         <v>29073.89130579036</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.96765869885</v>
+        <v>46051.96765869884</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.96765869885</v>
+        <v>46051.96765869884</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.96765869885</v>
+        <v>46051.96765869884</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.96765869885</v>
+        <v>46051.96765869884</v>
       </c>
       <c r="M5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
       <c r="N5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
       <c r="O5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
       <c r="P5" t="n">
-        <v>29073.89130579036</v>
+        <v>29073.89130579035</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96341.3866302137</v>
+        <v>96297.70090554161</v>
       </c>
       <c r="C6" t="n">
-        <v>96341.38663021359</v>
+        <v>96297.70090554173</v>
       </c>
       <c r="D6" t="n">
-        <v>96341.3866302137</v>
+        <v>96297.70090554161</v>
       </c>
       <c r="E6" t="n">
-        <v>-312733.584534685</v>
+        <v>-322639.863170835</v>
       </c>
       <c r="F6" t="n">
-        <v>216414.0179401108</v>
+        <v>206507.7393039608</v>
       </c>
       <c r="G6" t="n">
-        <v>216414.0179401109</v>
+        <v>206507.7393039608</v>
       </c>
       <c r="H6" t="n">
-        <v>216414.0179401109</v>
+        <v>206507.7393039608</v>
       </c>
       <c r="I6" t="n">
-        <v>165792.7417069537</v>
+        <v>159383.4593054696</v>
       </c>
       <c r="J6" t="n">
-        <v>240049.7654214568</v>
+        <v>233640.4830199723</v>
       </c>
       <c r="K6" t="n">
-        <v>240049.7654214569</v>
+        <v>233640.4830199722</v>
       </c>
       <c r="L6" t="n">
-        <v>240049.7654214567</v>
+        <v>233640.4830199724</v>
       </c>
       <c r="M6" t="n">
-        <v>216414.0179401108</v>
+        <v>206507.7393039608</v>
       </c>
       <c r="N6" t="n">
-        <v>216414.0179401109</v>
+        <v>206507.7393039608</v>
       </c>
       <c r="O6" t="n">
-        <v>216414.0179401108</v>
+        <v>206507.7393039607</v>
       </c>
       <c r="P6" t="n">
-        <v>216414.0179401109</v>
+        <v>206507.7393039608</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>554.8538969211869</v>
+        <v>554.8538969211868</v>
       </c>
       <c r="F3" t="n">
         <v>554.8538969211868</v>
@@ -26801,37 +26801,37 @@
         <v>279.2446768570474</v>
       </c>
       <c r="F4" t="n">
-        <v>279.2446768570475</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="G4" t="n">
-        <v>279.2446768570475</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="H4" t="n">
-        <v>279.2446768570475</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="I4" t="n">
-        <v>558.4893537140952</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="J4" t="n">
-        <v>558.4893537140952</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="K4" t="n">
-        <v>558.4893537140952</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="L4" t="n">
-        <v>558.4893537140952</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="M4" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570474</v>
       </c>
       <c r="N4" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="O4" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="P4" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>554.8538969211869</v>
+        <v>554.8538969211868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>279.2446768570476</v>
+        <v>279.2446768570473</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>22.84380893203659</v>
       </c>
       <c r="I11" t="n">
-        <v>85.99398939117211</v>
+        <v>85.99398939117209</v>
       </c>
       <c r="J11" t="n">
-        <v>189.3167072716165</v>
+        <v>189.3167072716164</v>
       </c>
       <c r="K11" t="n">
-        <v>283.7366689064862</v>
+        <v>283.7366689064861</v>
       </c>
       <c r="L11" t="n">
-        <v>352.0004274910159</v>
+        <v>352.0004274910158</v>
       </c>
       <c r="M11" t="n">
-        <v>391.6682988050748</v>
+        <v>391.6682988050747</v>
       </c>
       <c r="N11" t="n">
-        <v>398.0059013563405</v>
+        <v>398.0059013563404</v>
       </c>
       <c r="O11" t="n">
         <v>375.8256865321794</v>
       </c>
       <c r="P11" t="n">
-        <v>320.7585284206546</v>
+        <v>320.7585284206545</v>
       </c>
       <c r="Q11" t="n">
         <v>240.8762965272274</v>
@@ -31788,10 +31788,10 @@
         <v>140.1159441305548</v>
       </c>
       <c r="S11" t="n">
-        <v>50.8290780948404</v>
+        <v>50.82907809484039</v>
       </c>
       <c r="T11" t="n">
-        <v>9.764313301597969</v>
+        <v>9.764313301597968</v>
       </c>
       <c r="U11" t="n">
         <v>0.1784454743867132</v>
@@ -31837,25 +31837,25 @@
         <v>11.52630453792881</v>
       </c>
       <c r="I12" t="n">
-        <v>41.09059519652187</v>
+        <v>41.09059519652186</v>
       </c>
       <c r="J12" t="n">
         <v>112.7557339016914</v>
       </c>
       <c r="K12" t="n">
-        <v>192.7175087070504</v>
+        <v>192.7175087070503</v>
       </c>
       <c r="L12" t="n">
         <v>259.1324732743713</v>
       </c>
       <c r="M12" t="n">
-        <v>302.3953738220468</v>
+        <v>302.3953738220467</v>
       </c>
       <c r="N12" t="n">
         <v>310.3988795615987</v>
       </c>
       <c r="O12" t="n">
-        <v>283.9543334555059</v>
+        <v>283.9543334555058</v>
       </c>
       <c r="P12" t="n">
         <v>227.898386454289</v>
@@ -31864,7 +31864,7 @@
         <v>152.3440359999455</v>
       </c>
       <c r="R12" t="n">
-        <v>74.09916759260683</v>
+        <v>74.09916759260682</v>
       </c>
       <c r="S12" t="n">
         <v>22.1679835232191</v>
@@ -31873,7 +31873,7 @@
         <v>4.810478596892175</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07851706088507365</v>
+        <v>0.07851706088507364</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>1.000556207562796</v>
       </c>
       <c r="H13" t="n">
-        <v>8.895854281785592</v>
+        <v>8.89585428178559</v>
       </c>
       <c r="I13" t="n">
-        <v>30.08945395107027</v>
+        <v>30.08945395107026</v>
       </c>
       <c r="J13" t="n">
-        <v>70.73932387468967</v>
+        <v>70.73932387468966</v>
       </c>
       <c r="K13" t="n">
-        <v>116.2464393877503</v>
+        <v>116.2464393877502</v>
       </c>
       <c r="L13" t="n">
-        <v>148.7554201680179</v>
+        <v>148.7554201680178</v>
       </c>
       <c r="M13" t="n">
         <v>156.8417335182299</v>
@@ -31937,22 +31937,22 @@
         <v>141.4240719562396</v>
       </c>
       <c r="P13" t="n">
-        <v>121.0127253219585</v>
+        <v>121.0127253219584</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.78293843509923</v>
+        <v>83.7829384350992</v>
       </c>
       <c r="R13" t="n">
         <v>44.98864547823261</v>
       </c>
       <c r="S13" t="n">
-        <v>17.43696590816254</v>
+        <v>17.43696590816253</v>
       </c>
       <c r="T13" t="n">
-        <v>4.275103795950127</v>
+        <v>4.275103795950126</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05457579313978893</v>
+        <v>0.05457579313978892</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42.21690984368382</v>
+        <v>42.21690984368379</v>
       </c>
       <c r="K11" t="n">
         <v>104.9136649324394</v>
       </c>
       <c r="L11" t="n">
-        <v>160.4402153279013</v>
+        <v>160.4402153279012</v>
       </c>
       <c r="M11" t="n">
-        <v>204.5119843079157</v>
+        <v>204.5119843079156</v>
       </c>
       <c r="N11" t="n">
-        <v>211.6077871841104</v>
+        <v>211.6077871841102</v>
       </c>
       <c r="O11" t="n">
-        <v>188.870889752059</v>
+        <v>188.8708897520589</v>
       </c>
       <c r="P11" t="n">
-        <v>132.8817193694981</v>
+        <v>132.881719369498</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.25292350423717</v>
+        <v>60.25292350423715</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>9.70016223502472</v>
+        <v>9.700162235024692</v>
       </c>
       <c r="K12" t="n">
-        <v>218.1830313231019</v>
+        <v>233.0957726997053</v>
       </c>
       <c r="L12" t="n">
         <v>146.5570397032235</v>
       </c>
       <c r="M12" t="n">
-        <v>186.911471260407</v>
+        <v>186.9114712604068</v>
       </c>
       <c r="N12" t="n">
         <v>203.6837384938904</v>
       </c>
       <c r="O12" t="n">
-        <v>168.0948848443948</v>
+        <v>168.0948848443947</v>
       </c>
       <c r="P12" t="n">
         <v>119.0441804301457</v>
       </c>
       <c r="Q12" t="n">
-        <v>38.60884455505304</v>
+        <v>38.60884455505301</v>
       </c>
       <c r="R12" t="n">
-        <v>14.91274137660317</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.56833083996488</v>
+        <v>11.42316712419026</v>
       </c>
       <c r="L13" t="n">
-        <v>250.3787326935325</v>
+        <v>120.0153641010536</v>
       </c>
       <c r="M13" t="n">
         <v>276.0270932430801</v>
@@ -35585,7 +35585,7 @@
         <v>240.8823007397645</v>
       </c>
       <c r="P13" t="n">
-        <v>9.108722032026051</v>
+        <v>184.6172543402794</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>147.1618540177437</v>
+        <v>162.0745953943463</v>
       </c>
       <c r="K15" t="n">
         <v>80.72133954038367</v>
@@ -35749,7 +35749,7 @@
         <v>38.60884455505301</v>
       </c>
       <c r="R15" t="n">
-        <v>14.91274137660315</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.28265767472066</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>11.42316712419026</v>
@@ -35822,10 +35822,10 @@
         <v>240.8823007397645</v>
       </c>
       <c r="P16" t="n">
-        <v>9.108722032026023</v>
+        <v>54.25388574780061</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.86250604105452</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>9.700162235024692</v>
       </c>
       <c r="K18" t="n">
-        <v>80.72133954038367</v>
+        <v>233.0957726997053</v>
       </c>
       <c r="L18" t="n">
         <v>146.5570397032235</v>
@@ -35983,7 +35983,7 @@
         <v>119.0441804301457</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.9832777143751</v>
+        <v>38.60884455505301</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.28265767472066</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>150.1900633722385</v>
+        <v>11.42316712419026</v>
       </c>
       <c r="L19" t="n">
         <v>250.3787326935325</v>
       </c>
       <c r="M19" t="n">
-        <v>125.4917325338347</v>
+        <v>276.0270932430801</v>
       </c>
       <c r="N19" t="n">
         <v>272.7309146734761</v>
@@ -36059,10 +36059,10 @@
         <v>240.8823007397645</v>
       </c>
       <c r="P19" t="n">
-        <v>9.108722032026023</v>
+        <v>54.25388574780061</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.63097050225134</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9.700162235024692</v>
+        <v>147.1618540177432</v>
       </c>
       <c r="K21" t="n">
         <v>80.72133954038367</v>
@@ -36220,7 +36220,7 @@
         <v>119.0441804301457</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.0705363377722</v>
+        <v>38.60884455505301</v>
       </c>
       <c r="R21" t="n">
         <v>14.91274137660315</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>150.1900633722385</v>
+        <v>56.56833083996491</v>
       </c>
       <c r="L22" t="n">
-        <v>39.16162068951175</v>
+        <v>250.3787326935325</v>
       </c>
       <c r="M22" t="n">
         <v>276.0270932430801</v>
       </c>
       <c r="N22" t="n">
-        <v>169.186791334719</v>
+        <v>272.7309146734761</v>
       </c>
       <c r="O22" t="n">
         <v>240.8823007397645</v>
       </c>
       <c r="P22" t="n">
-        <v>184.6172543402794</v>
+        <v>9.108722032026023</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.63097050225134</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>42.21690984368379</v>
       </c>
       <c r="K23" t="n">
-        <v>526.3027012749535</v>
+        <v>104.9136649324394</v>
       </c>
       <c r="L23" t="n">
         <v>160.4402153279012</v>
       </c>
       <c r="M23" t="n">
-        <v>558.4893537140952</v>
+        <v>204.5119843079156</v>
       </c>
       <c r="N23" t="n">
-        <v>541.9374756572623</v>
+        <v>529.3470968209908</v>
       </c>
       <c r="O23" t="n">
-        <v>188.8708897520589</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="P23" t="n">
-        <v>132.881719369498</v>
+        <v>551.2200399924254</v>
       </c>
       <c r="Q23" t="n">
         <v>60.25292350423715</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.700162235024692</v>
+        <v>173.6185081775562</v>
       </c>
       <c r="K24" t="n">
-        <v>80.72133954038367</v>
+        <v>424.5261476567359</v>
       </c>
       <c r="L24" t="n">
-        <v>558.4893537140952</v>
+        <v>146.5570397032235</v>
       </c>
       <c r="M24" t="n">
-        <v>558.4893537140952</v>
+        <v>186.9114712604068</v>
       </c>
       <c r="N24" t="n">
-        <v>390.2308539772908</v>
+        <v>203.6837384938904</v>
       </c>
       <c r="O24" t="n">
-        <v>168.0948848443947</v>
+        <v>216.4274435015515</v>
       </c>
       <c r="P24" t="n">
-        <v>119.0441804301457</v>
+        <v>533.045779662064</v>
       </c>
       <c r="Q24" t="n">
         <v>311.7093186116568</v>
@@ -36597,28 +36597,28 @@
         <v>42.21690984368379</v>
       </c>
       <c r="K26" t="n">
-        <v>104.9136649324394</v>
+        <v>526.3027012749535</v>
       </c>
       <c r="L26" t="n">
-        <v>514.8933331221327</v>
+        <v>160.4402153279012</v>
       </c>
       <c r="M26" t="n">
-        <v>558.4893537140952</v>
+        <v>204.5119843079156</v>
       </c>
       <c r="N26" t="n">
-        <v>558.4893537140952</v>
+        <v>211.6077871841102</v>
       </c>
       <c r="O26" t="n">
         <v>188.8708897520589</v>
       </c>
       <c r="P26" t="n">
-        <v>132.881719369498</v>
+        <v>541.1792893909517</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.25292350423715</v>
+        <v>336.2624113621132</v>
       </c>
       <c r="R26" t="n">
-        <v>50.38404049144961</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.700162235024692</v>
+        <v>173.6185081775562</v>
       </c>
       <c r="K27" t="n">
-        <v>80.72133954038367</v>
+        <v>424.5261476567359</v>
       </c>
       <c r="L27" t="n">
         <v>146.5570397032235</v>
       </c>
       <c r="M27" t="n">
-        <v>352.5727151067487</v>
+        <v>186.9114712604068</v>
       </c>
       <c r="N27" t="n">
         <v>203.6837384938904</v>
       </c>
       <c r="O27" t="n">
-        <v>558.4893537140952</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="P27" t="n">
-        <v>533.045779662064</v>
+        <v>190.9838694495209</v>
       </c>
       <c r="Q27" t="n">
         <v>311.7093186116568</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>42.21690984368379</v>
+        <v>262.0425095673797</v>
       </c>
       <c r="K29" t="n">
         <v>526.3027012749535</v>
@@ -36846,10 +36846,10 @@
         <v>211.6077871841102</v>
       </c>
       <c r="O29" t="n">
-        <v>558.4893537140952</v>
+        <v>235.0140272847651</v>
       </c>
       <c r="P29" t="n">
-        <v>447.5703132867932</v>
+        <v>551.2200399924254</v>
       </c>
       <c r="Q29" t="n">
         <v>60.25292350423715</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.700162235024692</v>
+        <v>173.6185081775562</v>
       </c>
       <c r="K30" t="n">
-        <v>324.3951538144511</v>
+        <v>424.5261476567359</v>
       </c>
       <c r="L30" t="n">
         <v>146.5570397032235</v>
       </c>
       <c r="M30" t="n">
-        <v>558.4893537140952</v>
+        <v>186.9114712604068</v>
       </c>
       <c r="N30" t="n">
-        <v>558.4893537140952</v>
+        <v>252.016297151047</v>
       </c>
       <c r="O30" t="n">
         <v>168.0948848443947</v>
       </c>
       <c r="P30" t="n">
-        <v>119.0441804301457</v>
+        <v>533.045779662064</v>
       </c>
       <c r="Q30" t="n">
         <v>311.7093186116568</v>
@@ -37071,28 +37071,28 @@
         <v>42.21690984368379</v>
       </c>
       <c r="K32" t="n">
-        <v>104.9136649324394</v>
+        <v>526.3027012749535</v>
       </c>
       <c r="L32" t="n">
-        <v>558.4893537140952</v>
+        <v>160.4402153279012</v>
       </c>
       <c r="M32" t="n">
         <v>204.5119843079156</v>
       </c>
       <c r="N32" t="n">
-        <v>499.2522385662759</v>
+        <v>211.6077871841102</v>
       </c>
       <c r="O32" t="n">
-        <v>558.4893537140952</v>
+        <v>454.8396270084611</v>
       </c>
       <c r="P32" t="n">
-        <v>132.881719369498</v>
+        <v>551.2200399924254</v>
       </c>
       <c r="Q32" t="n">
         <v>60.25292350423715</v>
       </c>
       <c r="R32" t="n">
-        <v>50.38404049144961</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9.700162235024692</v>
+        <v>83.11922688044557</v>
       </c>
       <c r="K33" t="n">
         <v>424.5261476567359</v>
       </c>
       <c r="L33" t="n">
-        <v>558.4893537140952</v>
+        <v>558.4893537140947</v>
       </c>
       <c r="M33" t="n">
         <v>186.9114712604068</v>
       </c>
       <c r="N33" t="n">
-        <v>300.7099335015308</v>
+        <v>203.6837384938904</v>
       </c>
       <c r="O33" t="n">
-        <v>558.4893537140952</v>
+        <v>168.0948848443947</v>
       </c>
       <c r="P33" t="n">
-        <v>119.0441804301457</v>
+        <v>533.045779662064</v>
       </c>
       <c r="Q33" t="n">
         <v>38.60884455505301</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.700162235024692</v>
+        <v>162.0745953943463</v>
       </c>
       <c r="K36" t="n">
         <v>80.72133954038367</v>
@@ -37393,10 +37393,10 @@
         <v>146.5570397032235</v>
       </c>
       <c r="M36" t="n">
-        <v>279.2446768570476</v>
+        <v>186.9114712604068</v>
       </c>
       <c r="N36" t="n">
-        <v>248.8122246799691</v>
+        <v>203.6837384938904</v>
       </c>
       <c r="O36" t="n">
         <v>168.0948848443947</v>
@@ -37408,7 +37408,7 @@
         <v>38.60884455505301</v>
       </c>
       <c r="R36" t="n">
-        <v>14.91274137660315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>11.28265767472066</v>
       </c>
       <c r="K37" t="n">
-        <v>11.42316712419026</v>
+        <v>150.1900633722385</v>
       </c>
       <c r="L37" t="n">
-        <v>238.6102682323358</v>
+        <v>250.3787326935325</v>
       </c>
       <c r="M37" t="n">
         <v>276.0270932430801</v>
       </c>
       <c r="N37" t="n">
-        <v>272.7309146734761</v>
+        <v>204.2721584338755</v>
       </c>
       <c r="O37" t="n">
-        <v>240.8823007397645</v>
+        <v>28.92813446411731</v>
       </c>
       <c r="P37" t="n">
-        <v>9.108722032026023</v>
+        <v>184.6172543402794</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.63097050225134</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>147.1618540177441</v>
+        <v>162.0745953943459</v>
       </c>
       <c r="K39" t="n">
         <v>80.72133954038367</v>
@@ -37645,7 +37645,7 @@
         <v>38.60884455505301</v>
       </c>
       <c r="R39" t="n">
-        <v>14.91274137660315</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.28265767472066</v>
       </c>
       <c r="K40" t="n">
-        <v>11.42316712419026</v>
+        <v>150.1900633722385</v>
       </c>
       <c r="L40" t="n">
         <v>250.3787326935325</v>
       </c>
       <c r="M40" t="n">
-        <v>276.0270932430801</v>
+        <v>43.96453406080076</v>
       </c>
       <c r="N40" t="n">
-        <v>272.7309146734761</v>
+        <v>178.7495808382561</v>
       </c>
       <c r="O40" t="n">
         <v>240.8823007397645</v>
       </c>
       <c r="P40" t="n">
-        <v>54.25388574780153</v>
+        <v>184.6172543402794</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>45.63097050225134</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.21690984368379</v>
+        <v>42.21690984368339</v>
       </c>
       <c r="K41" t="n">
         <v>104.9136649324394</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.700162235024692</v>
+        <v>147.1618540177428</v>
       </c>
       <c r="K42" t="n">
         <v>80.72133954038367</v>
       </c>
       <c r="L42" t="n">
-        <v>172.8689394732901</v>
+        <v>146.5570397032235</v>
       </c>
       <c r="M42" t="n">
         <v>186.9114712604068</v>
@@ -37873,7 +37873,7 @@
         <v>203.6837384938904</v>
       </c>
       <c r="O42" t="n">
-        <v>279.2446768570476</v>
+        <v>168.0948848443947</v>
       </c>
       <c r="P42" t="n">
         <v>119.0441804301457</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.28265767472066</v>
       </c>
       <c r="K43" t="n">
         <v>11.42316712419026</v>
@@ -37952,10 +37952,10 @@
         <v>272.7309146734761</v>
       </c>
       <c r="O43" t="n">
-        <v>240.8823007397645</v>
+        <v>99.23627447256484</v>
       </c>
       <c r="P43" t="n">
-        <v>54.25388574780153</v>
+        <v>184.6172543402794</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>132.881719369498</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.25292350423715</v>
+        <v>60.25292350423666</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>162.0745953943473</v>
+        <v>162.0745953943459</v>
       </c>
       <c r="K45" t="n">
         <v>80.72133954038367</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>11.42316712419026</v>
+        <v>56.56833083996446</v>
       </c>
       <c r="L46" t="n">
         <v>250.3787326935325</v>
@@ -38192,7 +38192,7 @@
         <v>240.8823007397645</v>
       </c>
       <c r="P46" t="n">
-        <v>54.25388574780153</v>
+        <v>9.108722032026023</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
